--- a/data/India-External Debt.xlsx
+++ b/data/India-External Debt.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyan/Library/CloudStorage/OneDrive-IIMVIZAG/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDBAAC2-A936-A846-BBD2-7111B010D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8EDBAAC2-A936-A846-BBD2-7111B010D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54980C3F-97D1-2641-BA47-C7A63D89CEE7}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="500" windowWidth="18960" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="EX-DEBT-INSTRUMENT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <r>
       <rPr>
@@ -1578,9 +1590,6 @@
   </si>
   <si>
     <t>Direct investment: Intercompany lending</t>
-  </si>
-  <si>
-    <t>Total External Debt</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1967,100 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
@@ -1969,6 +2071,216 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1978,311 +2290,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2418,6 +2427,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2468,6 +2482,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2518,6 +2537,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2568,6 +2592,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2618,6 +2647,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2668,6 +2702,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2721,6 +2760,11 @@
                 <a:bevelT w="63500" h="25400"/>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8299-9F4D-9C05-C05637B46143}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2777,7 +2821,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>'EX-DEBT-INSTRUMENT'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2806,7 +2850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>'EX-DEBT-INSTRUMENT'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3595,16 +3639,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3992,1130 +4036,1130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:30" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:30" ht="125.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:30" ht="60.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:30" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:30" ht="154" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:30" ht="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:30" ht="294" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="57" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="59"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="112" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="94" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="94" t="s">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="95"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="40"/>
     </row>
     <row r="14" spans="1:30" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="94" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="95"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="34" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="34" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="34" t="s">
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="34" t="s">
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="35"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="A15" s="44">
         <v>1</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="60">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="44">
         <v>2</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="44">
         <v>4</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="60">
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="44">
         <v>5</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="60">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="44">
         <v>6</v>
       </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="60">
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="44">
         <v>7</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="60">
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="44">
         <v>8</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="62"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="46"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="19">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50">
         <v>68.099999999999994</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="4">
         <v>71.3</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="50">
         <v>71.5</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19">
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="50">
         <v>3.5</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="19">
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="50">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="19">
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="50">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="19">
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="50">
         <v>0.3</v>
       </c>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="21"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="19">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50">
         <v>30.5</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="4">
         <v>30.9</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="50">
         <v>30.7</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19">
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="50">
         <v>0.2</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="19">
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="50">
         <v>-0.2</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="19">
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="50">
         <v>0.5</v>
       </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="19">
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="50">
         <v>-0.7</v>
       </c>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="21"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="19">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50">
         <v>5.7</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="4">
         <v>23.3</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="50">
         <v>23.2</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19">
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="50">
         <v>17.399999999999999</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="19">
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="50">
         <v>-0.2</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="19">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="50">
         <v>304.2</v>
       </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="19">
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="50">
         <v>-0.7</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="21"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="19">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50">
         <v>6.5</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="4">
         <v>5.6</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="50">
         <v>5.6</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19">
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="50">
         <v>-0.9</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="19">
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="50">
         <v>0</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="19">
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="50">
         <v>-13.8</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="19">
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="50">
         <v>-0.8</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="21"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="19">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50">
         <v>212.5</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="4">
         <v>224.9</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="50">
         <v>226.4</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19">
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="50">
         <v>14</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="19">
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="50">
         <v>1.5</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="19">
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="50">
         <v>6.6</v>
       </c>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="19">
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="50">
         <v>0.7</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="21"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="19">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50">
         <v>140.5</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="4">
         <v>141.6</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="50">
         <v>141.9</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19">
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="50">
         <v>1.4</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="19">
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="50">
         <v>0.4</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="19">
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="50">
         <v>1</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="19">
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="50">
         <v>0.2</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="21"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="52"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="19">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50">
         <v>1</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="50">
         <v>1</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19">
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="50">
         <v>0</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="19">
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="50">
         <v>0</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="19">
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="50">
         <v>-3</v>
       </c>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="19">
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="50">
         <v>1.6</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="52"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="19">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50">
         <v>103.5</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="4">
         <v>104.8</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="50">
         <v>114.6</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="19">
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="50">
         <v>11.1</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="19">
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="50">
         <v>9.9</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="19">
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="50">
         <v>10.7</v>
       </c>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="19">
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="50">
         <v>9.4</v>
       </c>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="21"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="105"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="58"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="19">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="50">
         <v>99.6</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="4">
         <v>101.6</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="50">
         <v>110.5</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="19">
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="50">
         <v>10.9</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="19">
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="50">
         <v>9</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="19">
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="50">
         <v>11</v>
       </c>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="19">
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65">
         <v>568.29999999999995</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="6">
         <v>603.4</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="65">
         <v>614.9</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="46">
+      <c r="J26" s="66"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="65">
         <v>46.6</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="46">
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="65">
         <v>11.5</v>
       </c>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="46">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="65">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="46">
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="65">
         <v>1.9</v>
       </c>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="67"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="105"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="58"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="19">
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="50">
         <v>464.8</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="4">
         <v>498.6</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="50">
         <v>500.3</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19">
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="50">
         <v>35.5</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="19">
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="50">
         <v>1.7</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="19">
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="50">
         <v>7.6</v>
       </c>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="19">
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="50">
         <v>0.3</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="21"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="52"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="19">
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="50">
         <v>103.5</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="4">
         <v>104.8</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="50">
         <v>114.6</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="19">
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="50">
         <v>11.1</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="19">
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="50">
         <v>9.9</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="19">
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="50">
         <v>10.7</v>
       </c>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="19">
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="50">
         <v>9.4</v>
       </c>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="21"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="52"/>
     </row>
     <row r="30" spans="1:30" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="115"/>
-      <c r="AD30" s="115"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
     </row>
     <row r="31" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="57" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="59"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
     </row>
     <row r="33" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="94" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="112" t="s">
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="W33" s="113"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="94" t="s">
+      <c r="W33" s="36"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="95"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="40"/>
       <c r="AB33" s="1" t="s">
         <v>39</v>
       </c>
@@ -5124,41 +5168,41 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60">
+      <c r="A34" s="44">
         <v>1</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="60">
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="44">
         <v>2</v>
       </c>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="60">
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="44">
         <v>3</v>
       </c>
-      <c r="W34" s="61"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="60">
+      <c r="W34" s="45"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="44">
         <v>4</v>
       </c>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="62"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="46"/>
       <c r="AB34" s="3">
         <v>5</v>
       </c>
@@ -5167,41 +5211,41 @@
       </c>
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="46">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="65">
         <v>7.6</v>
       </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="46">
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="65">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W35" s="47"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="46">
+      <c r="W35" s="66"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="65">
         <v>8.9</v>
       </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="48"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="67"/>
       <c r="AB35" s="6">
         <v>106.5</v>
       </c>
@@ -5210,78 +5254,78 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="19">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="50">
         <v>0.9</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="105"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="58"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="19">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="50">
         <v>6.7</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="19">
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="50">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="19">
+      <c r="W37" s="51"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="50">
         <v>8.9</v>
       </c>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="21"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="52"/>
       <c r="AB37" s="4">
         <v>106.5</v>
       </c>
@@ -5290,41 +5334,41 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="65">
         <v>0.1</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="46">
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="65">
         <v>0</v>
       </c>
-      <c r="W38" s="47"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="46">
+      <c r="W38" s="66"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="65">
         <v>0</v>
       </c>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="48"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="67"/>
       <c r="AB38" s="6">
         <v>0</v>
       </c>
@@ -5333,78 +5377,78 @@
       </c>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="19">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="50">
         <v>0.1</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="105"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="58"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="19">
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="50">
         <v>0</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="19">
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="50">
         <v>0</v>
       </c>
-      <c r="W40" s="20"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="19">
+      <c r="W40" s="51"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="50">
         <v>0</v>
       </c>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="21"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="52"/>
       <c r="AB40" s="4">
         <v>0</v>
       </c>
@@ -5413,41 +5457,41 @@
       </c>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="46">
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65">
         <v>105.8</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="46">
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="65">
         <v>19.600000000000001</v>
       </c>
-      <c r="W41" s="47"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="46">
+      <c r="W41" s="66"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="65">
         <v>10.1</v>
       </c>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="48"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67"/>
       <c r="AB41" s="6">
         <v>26.7</v>
       </c>
@@ -5456,78 +5500,78 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="19">
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="50">
         <v>1.5</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="105"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="58"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="19">
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="50">
         <v>104.3</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="19">
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="50">
         <v>19.600000000000001</v>
       </c>
-      <c r="W43" s="20"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="19">
+      <c r="W43" s="51"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="50">
         <v>10.1</v>
       </c>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="21"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="52"/>
       <c r="AB43" s="4">
         <v>26.7</v>
       </c>
@@ -5536,41 +5580,41 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="65">
         <v>153.30000000000001</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="46">
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="65">
         <v>26.2</v>
       </c>
-      <c r="W44" s="47"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="46">
+      <c r="W44" s="66"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="65">
         <v>28.1</v>
       </c>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="48"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="67"/>
       <c r="AB44" s="6">
         <v>87.3</v>
       </c>
@@ -5579,78 +5623,78 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="19">
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="50">
         <v>112.1</v>
       </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="105"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="58"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="4">
         <v>112.1</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="19">
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="50">
         <v>41.2</v>
       </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="19">
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="50">
         <v>26.2</v>
       </c>
-      <c r="W46" s="20"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="19">
+      <c r="W46" s="51"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="50">
         <v>28.1</v>
       </c>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="21"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="52"/>
       <c r="AB46" s="4">
         <v>87.3</v>
       </c>
@@ -5659,41 +5703,41 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="46">
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="65">
         <v>11.6</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="46">
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="65">
         <v>10.9</v>
       </c>
-      <c r="W47" s="47"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="46">
+      <c r="W47" s="66"/>
+      <c r="X47" s="67"/>
+      <c r="Y47" s="65">
         <v>7.9</v>
       </c>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="48"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="67"/>
       <c r="AB47" s="6">
         <v>21.9</v>
       </c>
@@ -5702,78 +5746,78 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="19">
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="50">
         <v>1.6</v>
       </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="103"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="103"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="105"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="58"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="4">
         <v>1.6</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="19">
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="50">
         <v>10.1</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="19">
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="50">
         <v>10.9</v>
       </c>
-      <c r="W49" s="20"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="19">
+      <c r="W49" s="51"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="50">
         <v>7.9</v>
       </c>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="52"/>
       <c r="AB49" s="4">
         <v>21.9</v>
       </c>
@@ -5782,41 +5826,41 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="46">
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="65">
         <v>141.69999999999999</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="46">
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="65">
         <v>15.3</v>
       </c>
-      <c r="W50" s="47"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="46">
+      <c r="W50" s="66"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="65">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="48"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="67"/>
       <c r="AB50" s="6">
         <v>65.400000000000006</v>
       </c>
@@ -5825,78 +5869,78 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="19">
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="50">
         <v>110.5</v>
       </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="103"/>
-      <c r="W51" s="104"/>
-      <c r="X51" s="105"/>
-      <c r="Y51" s="103"/>
-      <c r="Z51" s="104"/>
-      <c r="AA51" s="105"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="58"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="57"/>
+      <c r="AA51" s="58"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="4">
         <v>110.5</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="19">
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="50">
         <v>31.2</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="19">
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="50">
         <v>15.3</v>
       </c>
-      <c r="W52" s="20"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="19">
+      <c r="W52" s="51"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="50">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="21"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="52"/>
       <c r="AB52" s="4">
         <v>65.400000000000006</v>
       </c>
@@ -5905,41 +5949,41 @@
       </c>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="46">
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="65">
         <v>0</v>
       </c>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="46">
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="65">
         <v>0</v>
       </c>
-      <c r="W53" s="47"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="46">
+      <c r="W53" s="66"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="65">
         <v>0</v>
       </c>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="48"/>
+      <c r="Z53" s="66"/>
+      <c r="AA53" s="67"/>
       <c r="AB53" s="6">
         <v>0</v>
       </c>
@@ -5948,78 +5992,78 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="19">
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="50">
         <v>0</v>
       </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="105"/>
-      <c r="Y54" s="103"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="105"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="58"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="19">
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="50">
         <v>0</v>
       </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="19">
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="50">
         <v>0</v>
       </c>
-      <c r="W55" s="20"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="19">
+      <c r="W55" s="51"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="50">
         <v>0</v>
       </c>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="21"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="52"/>
       <c r="AB55" s="4">
         <v>0</v>
       </c>
@@ -6028,41 +6072,41 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="46">
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="65">
         <v>6</v>
       </c>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="46">
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="65">
         <v>3</v>
       </c>
-      <c r="W56" s="47"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="46">
+      <c r="W56" s="66"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="65">
         <v>3.4</v>
       </c>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="48"/>
+      <c r="Z56" s="66"/>
+      <c r="AA56" s="67"/>
       <c r="AB56" s="6">
         <v>14</v>
       </c>
@@ -6071,78 +6115,78 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="19">
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="50">
         <v>114.6</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="105"/>
-      <c r="Y57" s="103"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="105"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="58"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="58"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="4">
         <v>114.6</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="19">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="50">
         <v>158.19999999999999</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="19">
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="50">
         <v>57.1</v>
       </c>
-      <c r="W58" s="20"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="19">
+      <c r="W58" s="51"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="50">
         <v>50.4</v>
       </c>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="21"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="52"/>
       <c r="AB58" s="4">
         <v>234.6</v>
       </c>
@@ -6151,41 +6195,41 @@
       </c>
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="46">
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="65">
         <v>272.8</v>
       </c>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="46">
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="65">
         <v>57.1</v>
       </c>
-      <c r="W59" s="47"/>
-      <c r="X59" s="48"/>
-      <c r="Y59" s="46">
+      <c r="W59" s="66"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="65">
         <v>50.4</v>
       </c>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="48"/>
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="67"/>
       <c r="AB59" s="6">
         <v>234.6</v>
       </c>
@@ -6194,150 +6238,150 @@
       </c>
     </row>
     <row r="60" spans="1:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
-      <c r="Y60" s="99"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="99"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="82"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+      <c r="P60" s="83"/>
+      <c r="Q60" s="83"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="83"/>
+      <c r="T60" s="83"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="83"/>
+      <c r="W60" s="83"/>
+      <c r="X60" s="83"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="83"/>
+      <c r="AA60" s="83"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="9"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="100" t="s">
+      <c r="A61" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="102"/>
-      <c r="P61" s="102"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="102"/>
-      <c r="S61" s="102"/>
-      <c r="T61" s="102"/>
-      <c r="U61" s="102"/>
-      <c r="V61" s="102"/>
-      <c r="W61" s="102"/>
-      <c r="X61" s="102"/>
-      <c r="Y61" s="102"/>
-      <c r="Z61" s="102"/>
-      <c r="AA61" s="102"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="86"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="86"/>
+      <c r="S61" s="86"/>
+      <c r="T61" s="86"/>
+      <c r="U61" s="86"/>
+      <c r="V61" s="86"/>
+      <c r="W61" s="86"/>
+      <c r="X61" s="86"/>
+      <c r="Y61" s="86"/>
+      <c r="Z61" s="86"/>
+      <c r="AA61" s="86"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="11">
         <v>44.4</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
-      <c r="V62" s="83"/>
-      <c r="W62" s="83"/>
-      <c r="X62" s="83"/>
-      <c r="Y62" s="83"/>
-      <c r="Z62" s="83"/>
-      <c r="AA62" s="83"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="89"/>
+      <c r="U62" s="89"/>
+      <c r="V62" s="89"/>
+      <c r="W62" s="89"/>
+      <c r="X62" s="89"/>
+      <c r="Y62" s="89"/>
+      <c r="Z62" s="89"/>
+      <c r="AA62" s="89"/>
       <c r="AB62" s="12"/>
       <c r="AC62" s="13">
         <v>43.1</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
-      <c r="W63" s="84"/>
-      <c r="X63" s="84"/>
-      <c r="Y63" s="84"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="90"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="87"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="91" t="s">
         <v>9</v>
       </c>
@@ -6352,966 +6396,966 @@
       <c r="T64" s="93"/>
     </row>
     <row r="65" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="94" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="95"/>
-      <c r="M65" s="94" t="s">
+      <c r="L65" s="40"/>
+      <c r="M65" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="94" t="s">
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="95"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="40"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="60">
+      <c r="A66" s="44">
         <v>1</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="60">
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="44">
         <v>2</v>
       </c>
-      <c r="L66" s="62"/>
-      <c r="M66" s="60">
+      <c r="L66" s="46"/>
+      <c r="M66" s="44">
         <v>3</v>
       </c>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="60">
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="44">
         <v>4</v>
       </c>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="62"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="19">
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="50">
         <v>110.9</v>
       </c>
-      <c r="L67" s="21"/>
-      <c r="M67" s="19">
+      <c r="L67" s="52"/>
+      <c r="M67" s="50">
         <v>132</v>
       </c>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="19">
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="50">
         <v>131.4</v>
       </c>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="21"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="52"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="19">
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="50">
         <v>4.2</v>
       </c>
-      <c r="L68" s="21"/>
-      <c r="M68" s="19">
+      <c r="L68" s="52"/>
+      <c r="M68" s="50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="19">
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="50">
         <v>4.3</v>
       </c>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="21"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="52"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="19">
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="50">
         <v>82.2</v>
       </c>
-      <c r="L69" s="21"/>
-      <c r="M69" s="19">
+      <c r="L69" s="52"/>
+      <c r="M69" s="50">
         <v>85.7</v>
       </c>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="19">
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="50">
         <v>85.9</v>
       </c>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="21"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="52"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="19">
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="50">
         <v>28.7</v>
       </c>
-      <c r="L70" s="21"/>
-      <c r="M70" s="19">
+      <c r="L70" s="52"/>
+      <c r="M70" s="50">
         <v>46.3</v>
       </c>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="19">
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="50">
         <v>45.4</v>
       </c>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="21"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="52"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="19">
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="50">
         <v>457.4</v>
       </c>
-      <c r="L71" s="21"/>
-      <c r="M71" s="19">
+      <c r="L71" s="52"/>
+      <c r="M71" s="50">
         <v>471.4</v>
       </c>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="19">
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="50">
         <v>483.6</v>
       </c>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="21"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="52"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="19">
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="50">
         <v>17.5</v>
       </c>
-      <c r="L72" s="21"/>
-      <c r="M72" s="19">
+      <c r="L72" s="52"/>
+      <c r="M72" s="50">
         <v>15.9</v>
       </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="19">
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="50">
         <v>15.7</v>
       </c>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="21"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="52"/>
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="19">
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="50">
         <v>0.2</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="19">
+      <c r="L73" s="52"/>
+      <c r="M73" s="50">
         <v>0.1</v>
       </c>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="19">
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="50">
         <v>0.1</v>
       </c>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="21"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="52"/>
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="19">
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="50">
         <v>159.4</v>
       </c>
-      <c r="L74" s="21"/>
-      <c r="M74" s="19">
+      <c r="L74" s="52"/>
+      <c r="M74" s="50">
         <v>160.1</v>
       </c>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="19">
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="50">
         <v>162.19999999999999</v>
       </c>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="21"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="52"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="19">
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="50">
         <v>46.7</v>
       </c>
-      <c r="L75" s="21"/>
-      <c r="M75" s="19">
+      <c r="L75" s="52"/>
+      <c r="M75" s="50">
         <v>52.3</v>
       </c>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="19">
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="50">
         <v>52.4</v>
       </c>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="21"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="52"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="19">
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="96"/>
+      <c r="K76" s="50">
         <v>225.5</v>
       </c>
-      <c r="L76" s="21"/>
-      <c r="M76" s="19">
+      <c r="L76" s="52"/>
+      <c r="M76" s="50">
         <v>232.8</v>
       </c>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="19">
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="50">
         <v>242.5</v>
       </c>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="21"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="52"/>
     </row>
     <row r="77" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="75">
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="100">
         <v>0</v>
       </c>
-      <c r="L77" s="76"/>
-      <c r="M77" s="75">
+      <c r="L77" s="101"/>
+      <c r="M77" s="100">
         <v>0</v>
       </c>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="75">
+      <c r="N77" s="102"/>
+      <c r="O77" s="102"/>
+      <c r="P77" s="101"/>
+      <c r="Q77" s="100">
         <v>0</v>
       </c>
-      <c r="R77" s="77"/>
-      <c r="S77" s="77"/>
-      <c r="T77" s="76"/>
+      <c r="R77" s="102"/>
+      <c r="S77" s="102"/>
+      <c r="T77" s="101"/>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="19">
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="50">
         <v>25.7</v>
       </c>
-      <c r="L78" s="21"/>
-      <c r="M78" s="19">
+      <c r="L78" s="52"/>
+      <c r="M78" s="50">
         <v>26.1</v>
       </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="19">
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="50">
         <v>26.4</v>
       </c>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="21"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="52"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="19">
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="50">
         <v>568.29999999999995</v>
       </c>
-      <c r="L79" s="21"/>
-      <c r="M79" s="19">
+      <c r="L79" s="52"/>
+      <c r="M79" s="50">
         <v>603.4</v>
       </c>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="19">
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="50">
         <v>614.9</v>
       </c>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="21"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="52"/>
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="19">
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="50">
         <v>21.7</v>
       </c>
-      <c r="L80" s="21"/>
-      <c r="M80" s="19">
+      <c r="L80" s="52"/>
+      <c r="M80" s="50">
         <v>20.3</v>
       </c>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="19">
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="50">
         <v>20</v>
       </c>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="21"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="52"/>
     </row>
     <row r="81" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="50"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="50"/>
-      <c r="V81" s="50"/>
-      <c r="W81" s="50"/>
-      <c r="X81" s="50"/>
-      <c r="Y81" s="50"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="103"/>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103"/>
+      <c r="L81" s="103"/>
+      <c r="M81" s="103"/>
+      <c r="N81" s="103"/>
+      <c r="O81" s="103"/>
+      <c r="P81" s="103"/>
+      <c r="Q81" s="103"/>
+      <c r="R81" s="103"/>
+      <c r="S81" s="103"/>
+      <c r="T81" s="103"/>
+      <c r="U81" s="103"/>
+      <c r="V81" s="103"/>
+      <c r="W81" s="103"/>
+      <c r="X81" s="103"/>
+      <c r="Y81" s="103"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="57" t="s">
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="58"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="59"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="34"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57" t="s">
+      <c r="A83" s="107"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="57" t="s">
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="57" t="s">
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="34"/>
+      <c r="O83" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="58"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="59"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="34"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="60">
+      <c r="A84" s="44">
         <v>1</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="60">
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="44">
         <v>2</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="60">
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="44">
         <v>3</v>
       </c>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="60">
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="44">
         <v>4</v>
       </c>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="61"/>
-      <c r="U84" s="62"/>
+      <c r="P84" s="45"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="46"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="19">
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="50">
         <v>5.7</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="19">
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="50">
         <v>23.3</v>
       </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="19">
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="52"/>
+      <c r="O85" s="50">
         <v>23.2</v>
       </c>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="21"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="52"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="19">
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="50">
         <v>142.5</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="19">
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="50">
         <v>142.9</v>
       </c>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="19">
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="50">
         <v>143.5</v>
       </c>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="21"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="52"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="19">
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50">
         <v>99.6</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="19">
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="50">
         <v>105.6</v>
       </c>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="19">
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="50">
         <v>104.4</v>
       </c>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="21"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="52"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="19">
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="50">
         <v>192.2</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="19">
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="50">
         <v>201.1</v>
       </c>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="19">
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="50">
         <v>204</v>
       </c>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="21"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="U88" s="52"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="19">
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="50">
         <v>102.6</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="19">
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="50">
         <v>104.4</v>
       </c>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="19">
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="50">
         <v>113.5</v>
       </c>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="21"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="52"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="19">
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="50">
         <v>0</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="19">
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="50">
         <v>0</v>
       </c>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="19">
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="50">
         <v>0</v>
       </c>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="21"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="U90" s="52"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="19">
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="50">
         <v>25.7</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="19">
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="50">
         <v>26.1</v>
       </c>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="19">
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="52"/>
+      <c r="O91" s="50">
         <v>26.4</v>
       </c>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="21"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="52"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="46">
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="65">
         <v>568.29999999999995</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="46">
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="65">
         <v>603.4</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="46">
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
+      <c r="M92" s="66"/>
+      <c r="N92" s="67"/>
+      <c r="O92" s="65">
         <v>614.9</v>
       </c>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="48"/>
+      <c r="P92" s="66"/>
+      <c r="Q92" s="66"/>
+      <c r="R92" s="66"/>
+      <c r="S92" s="66"/>
+      <c r="T92" s="66"/>
+      <c r="U92" s="67"/>
     </row>
     <row r="93" spans="1:25" ht="17.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="49"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="49"/>
-      <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="110"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="110"/>
+      <c r="O93" s="110"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
+      <c r="R93" s="110"/>
+      <c r="S93" s="110"/>
+      <c r="T93" s="110"/>
+      <c r="U93" s="110"/>
     </row>
     <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="25"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="25"/>
-      <c r="U94" s="25"/>
-      <c r="V94" s="25"/>
-      <c r="W94" s="25"/>
-      <c r="X94" s="25"/>
-      <c r="Y94" s="25"/>
+      <c r="B94" s="111"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="111"/>
+      <c r="F94" s="111"/>
+      <c r="G94" s="111"/>
+      <c r="H94" s="111"/>
+      <c r="I94" s="111"/>
+      <c r="J94" s="111"/>
+      <c r="K94" s="111"/>
+      <c r="L94" s="111"/>
+      <c r="M94" s="111"/>
+      <c r="N94" s="111"/>
+      <c r="O94" s="111"/>
+      <c r="P94" s="111"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="111"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
+      <c r="U94" s="111"/>
+      <c r="V94" s="111"/>
+      <c r="W94" s="111"/>
+      <c r="X94" s="111"/>
+      <c r="Y94" s="111"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="30"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
+      <c r="F95" s="115"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="115"/>
+      <c r="I95" s="115"/>
+      <c r="J95" s="115"/>
+      <c r="K95" s="115"/>
+      <c r="L95" s="115"/>
+      <c r="M95" s="115"/>
+      <c r="N95" s="115"/>
+      <c r="O95" s="115"/>
+      <c r="P95" s="115"/>
+      <c r="Q95" s="115"/>
+      <c r="R95" s="115"/>
+      <c r="S95" s="115"/>
+      <c r="T95" s="115"/>
+      <c r="U95" s="115"/>
+      <c r="V95" s="116"/>
     </row>
     <row r="96" spans="1:25" ht="120.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="27"/>
+      <c r="A96" s="113"/>
       <c r="B96" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34" t="s">
+      <c r="E96" s="118"/>
+      <c r="F96" s="119"/>
+      <c r="G96" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="H96" s="35"/>
-      <c r="I96" s="34" t="s">
+      <c r="H96" s="43"/>
+      <c r="I96" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="34" t="s">
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="34" t="s">
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="35"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="43"/>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
@@ -7323,35 +7367,35 @@
       <c r="C97" s="15">
         <v>3</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D97" s="120">
         <v>4</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="37">
+      <c r="E97" s="121"/>
+      <c r="F97" s="122"/>
+      <c r="G97" s="120">
         <v>5</v>
       </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="37">
+      <c r="H97" s="122"/>
+      <c r="I97" s="120">
         <v>6</v>
       </c>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="37">
+      <c r="J97" s="121"/>
+      <c r="K97" s="121"/>
+      <c r="L97" s="121"/>
+      <c r="M97" s="122"/>
+      <c r="N97" s="120">
         <v>7</v>
       </c>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="37">
+      <c r="O97" s="121"/>
+      <c r="P97" s="121"/>
+      <c r="Q97" s="122"/>
+      <c r="R97" s="120">
         <v>8</v>
       </c>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="39"/>
+      <c r="S97" s="121"/>
+      <c r="T97" s="121"/>
+      <c r="U97" s="121"/>
+      <c r="V97" s="122"/>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16">
@@ -7363,35 +7407,35 @@
       <c r="C98" s="4">
         <v>28.3</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="50">
         <v>35.299999999999997</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="19">
+      <c r="E98" s="51"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="50">
         <v>7</v>
       </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="19">
+      <c r="H98" s="52"/>
+      <c r="I98" s="50">
         <v>45.9</v>
       </c>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="19">
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="50">
         <v>146.5</v>
       </c>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="19">
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="50">
         <v>10.199999999999999</v>
       </c>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="21"/>
+      <c r="S98" s="51"/>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="52"/>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16">
@@ -7403,35 +7447,35 @@
       <c r="C99" s="4">
         <v>26.6</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="50">
         <v>26.2</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="19">
+      <c r="E99" s="51"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="50">
         <v>23.1</v>
       </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="19">
+      <c r="H99" s="52"/>
+      <c r="I99" s="50">
         <v>44.7</v>
       </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="19">
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="50">
         <v>23.2</v>
       </c>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="19">
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="52"/>
+      <c r="R99" s="50">
         <v>5.4</v>
       </c>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="21"/>
+      <c r="S99" s="51"/>
+      <c r="T99" s="51"/>
+      <c r="U99" s="51"/>
+      <c r="V99" s="52"/>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16">
@@ -7443,35 +7487,35 @@
       <c r="C100" s="4">
         <v>22.1</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="50">
         <v>16.600000000000001</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="19">
+      <c r="E100" s="51"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="50">
         <v>41.7</v>
       </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="19">
+      <c r="H100" s="52"/>
+      <c r="I100" s="50">
         <v>35.4</v>
       </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="19">
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="50">
         <v>8.6</v>
       </c>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="19">
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="52"/>
+      <c r="R100" s="50">
         <v>3.6</v>
       </c>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="21"/>
+      <c r="S100" s="51"/>
+      <c r="T100" s="51"/>
+      <c r="U100" s="51"/>
+      <c r="V100" s="52"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16">
@@ -7483,35 +7527,35 @@
       <c r="C101" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="19">
+      <c r="E101" s="124"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="50">
         <v>109</v>
       </c>
-      <c r="H101" s="21"/>
-      <c r="I101" s="19">
+      <c r="H101" s="52"/>
+      <c r="I101" s="50">
         <v>28.4</v>
       </c>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="19">
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="50">
         <v>12.9</v>
       </c>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="19">
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="52"/>
+      <c r="R101" s="50">
         <v>14</v>
       </c>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="21"/>
+      <c r="S101" s="51"/>
+      <c r="T101" s="51"/>
+      <c r="U101" s="51"/>
+      <c r="V101" s="52"/>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16">
@@ -7523,35 +7567,35 @@
       <c r="C102" s="4">
         <v>17.7</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="50">
         <v>4.7</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="19">
+      <c r="E102" s="51"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="50">
         <v>115.6</v>
       </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="19">
+      <c r="H102" s="52"/>
+      <c r="I102" s="50">
         <v>23</v>
       </c>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="19">
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="50">
         <v>14.1</v>
       </c>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="19">
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="52"/>
+      <c r="R102" s="50">
         <v>16.3</v>
       </c>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="21"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="51"/>
+      <c r="V102" s="52"/>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16">
@@ -7563,35 +7607,35 @@
       <c r="C103" s="4">
         <v>18.3</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="50">
         <v>4.8</v>
       </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="19">
+      <c r="E103" s="51"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="50">
         <v>138</v>
       </c>
-      <c r="H103" s="21"/>
-      <c r="I103" s="19">
+      <c r="H103" s="52"/>
+      <c r="I103" s="50">
         <v>19.7</v>
       </c>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="19">
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="50">
         <v>14.8</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="19">
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="52"/>
+      <c r="R103" s="50">
         <v>20.399999999999999</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="21"/>
+      <c r="S103" s="51"/>
+      <c r="T103" s="51"/>
+      <c r="U103" s="51"/>
+      <c r="V103" s="52"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16">
@@ -7603,35 +7647,35 @@
       <c r="C104" s="4">
         <v>20.7</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="19">
+      <c r="E104" s="51"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="50">
         <v>112.2</v>
       </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="19">
+      <c r="H104" s="52"/>
+      <c r="I104" s="50">
         <v>18.7</v>
       </c>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="19">
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="50">
         <v>17.2</v>
       </c>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="19">
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="52"/>
+      <c r="R104" s="50">
         <v>19.3</v>
       </c>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="21"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="52"/>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16">
@@ -7643,35 +7687,35 @@
       <c r="C105" s="4">
         <v>18.5</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="50">
         <v>5.8</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="19">
+      <c r="E105" s="51"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="50">
         <v>106.9</v>
       </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="19">
+      <c r="H105" s="52"/>
+      <c r="I105" s="50">
         <v>16.8</v>
       </c>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="19">
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="50">
         <v>18.8</v>
       </c>
-      <c r="O105" s="20"/>
-      <c r="P105" s="20"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="19">
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="52"/>
+      <c r="R105" s="50">
         <v>20.100000000000001</v>
       </c>
-      <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
-      <c r="V105" s="21"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="51"/>
+      <c r="V105" s="52"/>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16">
@@ -7683,35 +7727,35 @@
       <c r="C106" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="19">
+      <c r="E106" s="51"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="50">
         <v>95.9</v>
       </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="19">
+      <c r="H106" s="52"/>
+      <c r="I106" s="50">
         <v>14.9</v>
       </c>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="19">
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="50">
         <v>21.3</v>
       </c>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="19">
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="52"/>
+      <c r="R106" s="50">
         <v>20.399999999999999</v>
       </c>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
-      <c r="V106" s="21"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="51"/>
+      <c r="U106" s="51"/>
+      <c r="V106" s="52"/>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16">
@@ -7723,35 +7767,35 @@
       <c r="C107" s="4">
         <v>21.1</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="50">
         <v>6</v>
       </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="19">
+      <c r="E107" s="51"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="50">
         <v>81.599999999999994</v>
       </c>
-      <c r="H107" s="21"/>
-      <c r="I107" s="19">
+      <c r="H107" s="52"/>
+      <c r="I107" s="50">
         <v>13.3</v>
       </c>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="19">
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="50">
         <v>26.6</v>
       </c>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="19">
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="52"/>
+      <c r="R107" s="50">
         <v>21.7</v>
       </c>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="21"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="51"/>
+      <c r="V107" s="52"/>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16">
@@ -7763,35 +7807,35 @@
       <c r="C108" s="4">
         <v>22.4</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="50">
         <v>5.9</v>
       </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="19">
+      <c r="E108" s="51"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="50">
         <v>71.3</v>
       </c>
-      <c r="H108" s="21"/>
-      <c r="I108" s="19">
+      <c r="H108" s="52"/>
+      <c r="I108" s="50">
         <v>11.1</v>
       </c>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="19">
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="50">
         <v>33.1</v>
       </c>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="19">
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="52"/>
+      <c r="R108" s="50">
         <v>23.6</v>
       </c>
-      <c r="S108" s="20"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="20"/>
-      <c r="V108" s="21"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="51"/>
+      <c r="U108" s="51"/>
+      <c r="V108" s="52"/>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16">
@@ -7803,35 +7847,35 @@
       <c r="C109" s="4">
         <v>23.9</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="50">
         <v>5.9</v>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="19">
+      <c r="E109" s="51"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="50">
         <v>68.2</v>
       </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="19">
+      <c r="H109" s="52"/>
+      <c r="I109" s="50">
         <v>10.4</v>
       </c>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="19">
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="52"/>
+      <c r="N109" s="50">
         <v>30.1</v>
       </c>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="19">
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="52"/>
+      <c r="R109" s="50">
         <v>20.5</v>
       </c>
-      <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
-      <c r="V109" s="21"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="51"/>
+      <c r="V109" s="52"/>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16">
@@ -7843,35 +7887,35 @@
       <c r="C110" s="4">
         <v>23.8</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="50">
         <v>7.6</v>
       </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19">
+      <c r="E110" s="51"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="50">
         <v>72</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="19">
+      <c r="H110" s="52"/>
+      <c r="I110" s="50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="19">
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="50">
         <v>25</v>
       </c>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="19">
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="52"/>
+      <c r="R110" s="50">
         <v>18</v>
       </c>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="21"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="51"/>
+      <c r="U110" s="51"/>
+      <c r="V110" s="52"/>
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16">
@@ -7883,35 +7927,35 @@
       <c r="C111" s="4">
         <v>23.4</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="19">
+      <c r="E111" s="51"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="50">
         <v>74.3</v>
       </c>
-      <c r="H111" s="21"/>
-      <c r="I111" s="19">
+      <c r="H111" s="52"/>
+      <c r="I111" s="50">
         <v>9</v>
       </c>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="19">
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="50">
         <v>23.2</v>
       </c>
-      <c r="O111" s="20"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="19">
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="52"/>
+      <c r="R111" s="50">
         <v>17.2</v>
       </c>
-      <c r="S111" s="20"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
-      <c r="V111" s="21"/>
+      <c r="S111" s="51"/>
+      <c r="T111" s="51"/>
+      <c r="U111" s="51"/>
+      <c r="V111" s="52"/>
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16">
@@ -7923,35 +7967,35 @@
       <c r="C112" s="4">
         <v>19.8</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="50">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="19">
+      <c r="E112" s="51"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="50">
         <v>78.5</v>
       </c>
-      <c r="H112" s="21"/>
-      <c r="I112" s="19">
+      <c r="H112" s="52"/>
+      <c r="I112" s="50">
         <v>9.4</v>
       </c>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="19">
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="52"/>
+      <c r="N112" s="50">
         <v>23.8</v>
       </c>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="21"/>
-      <c r="R112" s="19">
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="52"/>
+      <c r="R112" s="50">
         <v>18.7</v>
       </c>
-      <c r="S112" s="20"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
-      <c r="V112" s="21"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="51"/>
+      <c r="U112" s="51"/>
+      <c r="V112" s="52"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16">
@@ -7963,35 +8007,35 @@
       <c r="C113" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="50">
         <v>7.5</v>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="19">
+      <c r="E113" s="51"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="50">
         <v>80.2</v>
       </c>
-      <c r="H113" s="21"/>
-      <c r="I113" s="19">
+      <c r="H113" s="52"/>
+      <c r="I113" s="50">
         <v>9.1</v>
       </c>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="19">
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="52"/>
+      <c r="N113" s="50">
         <v>24.1</v>
       </c>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="21"/>
-      <c r="R113" s="19">
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="52"/>
+      <c r="R113" s="50">
         <v>19.3</v>
       </c>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="21"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+      <c r="U113" s="51"/>
+      <c r="V113" s="52"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16">
@@ -8003,35 +8047,35 @@
       <c r="C114" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="50">
         <v>6.4</v>
       </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="19">
+      <c r="E114" s="51"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="50">
         <v>76</v>
       </c>
-      <c r="H114" s="21"/>
-      <c r="I114" s="19">
+      <c r="H114" s="52"/>
+      <c r="I114" s="50">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="19">
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="50">
         <v>26.3</v>
       </c>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="19">
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="52"/>
+      <c r="R114" s="50">
         <v>20</v>
       </c>
-      <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
-      <c r="V114" s="21"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="51"/>
+      <c r="U114" s="51"/>
+      <c r="V114" s="52"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16">
@@ -8043,35 +8087,35 @@
       <c r="C115" s="4">
         <v>20.6</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="50">
         <v>6.5</v>
       </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="19">
+      <c r="E115" s="51"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="50">
         <v>85.6</v>
       </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="19">
+      <c r="H115" s="52"/>
+      <c r="I115" s="50">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="19">
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="52"/>
+      <c r="N115" s="50">
         <v>22.4</v>
       </c>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="19">
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="52"/>
+      <c r="R115" s="50">
         <v>19.100000000000001</v>
       </c>
-      <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="21"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="51"/>
+      <c r="U115" s="51"/>
+      <c r="V115" s="52"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16">
@@ -8083,35 +8127,35 @@
       <c r="C116" s="4">
         <v>21.2</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="50">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E116" s="20"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="19">
+      <c r="E116" s="51"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="50">
         <v>100.6</v>
       </c>
-      <c r="H116" s="21"/>
-      <c r="I116" s="19">
+      <c r="H116" s="52"/>
+      <c r="I116" s="50">
         <v>9</v>
       </c>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="19">
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="52"/>
+      <c r="N116" s="50">
         <v>17.5</v>
       </c>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="19">
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="52"/>
+      <c r="R116" s="50">
         <v>17.600000000000001</v>
       </c>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
-      <c r="V116" s="21"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="51"/>
+      <c r="U116" s="51"/>
+      <c r="V116" s="52"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
@@ -8123,35 +8167,35 @@
       <c r="C117" s="4">
         <v>20.3</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="50">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="19">
+      <c r="E117" s="51"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="50">
         <v>106.2</v>
       </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="19">
+      <c r="H117" s="52"/>
+      <c r="I117" s="50">
         <v>8.9</v>
       </c>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="19">
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="51"/>
+      <c r="M117" s="52"/>
+      <c r="N117" s="50">
         <v>16.8</v>
       </c>
-      <c r="O117" s="20"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="19">
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="52"/>
+      <c r="R117" s="50">
         <v>17.8</v>
       </c>
-      <c r="S117" s="20"/>
-      <c r="T117" s="20"/>
-      <c r="U117" s="20"/>
-      <c r="V117" s="21"/>
+      <c r="S117" s="51"/>
+      <c r="T117" s="51"/>
+      <c r="U117" s="51"/>
+      <c r="V117" s="52"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="17" t="s">
@@ -8163,35 +8207,35 @@
       <c r="C118" s="4">
         <v>20.3</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="50">
         <v>4.7</v>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="19">
+      <c r="E118" s="51"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="50">
         <v>105.3</v>
       </c>
-      <c r="H118" s="21"/>
-      <c r="I118" s="19">
+      <c r="H118" s="52"/>
+      <c r="I118" s="50">
         <v>8.5</v>
       </c>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="19">
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="52"/>
+      <c r="N118" s="50">
         <v>16.5</v>
       </c>
-      <c r="O118" s="20"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="19">
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="52"/>
+      <c r="R118" s="50">
         <v>17.399999999999999</v>
       </c>
-      <c r="S118" s="20"/>
-      <c r="T118" s="20"/>
-      <c r="U118" s="20"/>
-      <c r="V118" s="21"/>
+      <c r="S118" s="51"/>
+      <c r="T118" s="51"/>
+      <c r="U118" s="51"/>
+      <c r="V118" s="52"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="17" t="s">
@@ -8203,88 +8247,514 @@
       <c r="C119" s="4">
         <v>20</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="50">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="19">
+      <c r="E119" s="51"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="50">
         <v>103</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="19">
+      <c r="H119" s="52"/>
+      <c r="I119" s="50">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="19">
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="50">
         <v>18.100000000000001</v>
       </c>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="19">
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="52"/>
+      <c r="R119" s="50">
         <v>18.600000000000001</v>
       </c>
-      <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
-      <c r="U119" s="20"/>
-      <c r="V119" s="21"/>
+      <c r="S119" s="51"/>
+      <c r="T119" s="51"/>
+      <c r="U119" s="51"/>
+      <c r="V119" s="52"/>
     </row>
     <row r="120" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
+      <c r="B120" s="126"/>
+      <c r="C120" s="126"/>
+      <c r="D120" s="126"/>
+      <c r="E120" s="126"/>
+      <c r="F120" s="126"/>
+      <c r="G120" s="126"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="126"/>
+      <c r="J120" s="126"/>
+      <c r="K120" s="126"/>
+      <c r="L120" s="126"/>
+      <c r="M120" s="126"/>
+      <c r="N120" s="126"/>
+      <c r="O120" s="126"/>
+      <c r="P120" s="126"/>
+      <c r="Q120" s="126"/>
+      <c r="R120" s="126"/>
+      <c r="S120" s="126"/>
+      <c r="T120" s="126"/>
+      <c r="U120" s="126"/>
+      <c r="V120" s="126"/>
+      <c r="W120" s="126"/>
+      <c r="X120" s="126"/>
+      <c r="Y120" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="482">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:AD11"/>
-    <mergeCell ref="A12:D14"/>
-    <mergeCell ref="E12:Z12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="A120:Y120"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:V119"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="R116:V116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:V117"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:V114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="R115:V115"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="N112:Q112"/>
+    <mergeCell ref="R112:V112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:V113"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="R110:V110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="N111:Q111"/>
+    <mergeCell ref="R111:V111"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:V108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:V109"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="R106:V106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="R107:V107"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:V104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="R102:V102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:V103"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:V100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="R101:V101"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="R98:V98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="R99:V99"/>
+    <mergeCell ref="A94:Y94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:V95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="R97:V97"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="A93:U93"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="A81:Y81"/>
+    <mergeCell ref="A82:E83"/>
+    <mergeCell ref="F82:U82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:T76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="Q69:T69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="Q71:T71"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="Q68:T68"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:Y63"/>
+    <mergeCell ref="A64:J65"/>
+    <mergeCell ref="K64:T64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="M60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="M57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A32:L33"/>
+    <mergeCell ref="M32:AC32"/>
+    <mergeCell ref="M33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Z18"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="I15:K15"/>
@@ -8299,453 +8769,27 @@
     <mergeCell ref="P16:S16"/>
     <mergeCell ref="T16:W16"/>
     <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="A30:AD30"/>
-    <mergeCell ref="A31:AD31"/>
-    <mergeCell ref="A32:L33"/>
-    <mergeCell ref="M32:AC32"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="M60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:Y63"/>
-    <mergeCell ref="A64:J65"/>
-    <mergeCell ref="K64:T64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="Q68:T68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="Q69:T69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="Q71:T71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="Q78:T78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="A81:Y81"/>
-    <mergeCell ref="A82:E83"/>
-    <mergeCell ref="F82:U82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="A93:U93"/>
-    <mergeCell ref="A94:Y94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:V95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="R97:V97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="R98:V98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="R99:V99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:V100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="R101:V101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="R102:V102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:V103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:V104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:M105"/>
-    <mergeCell ref="N105:Q105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="R106:V106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="R107:V107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:V108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="R109:V109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="N110:Q110"/>
-    <mergeCell ref="R110:V110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:M111"/>
-    <mergeCell ref="N111:Q111"/>
-    <mergeCell ref="R111:V111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:M112"/>
-    <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="R112:V112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:V113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:V114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="R115:V115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="R116:V116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:V117"/>
-    <mergeCell ref="A120:Y120"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="R119:V119"/>
+    <mergeCell ref="A11:AD11"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="E12:Z12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.dea.gov.in/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8757,10 +8801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF4A796-A2B0-B243-B427-BF28FAB7BDE2}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="A2:A8 D2:D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8880,20 +8924,6 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9">
-        <v>568.29999999999995</v>
-      </c>
-      <c r="C9">
-        <v>603.4</v>
-      </c>
-      <c r="D9">
-        <v>614.9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/India-External Debt.xlsx
+++ b/data/India-External Debt.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iimv1-my.sharepoint.com/personal/kalyan_iimv_ac_in/Documents/Python-Exercise-KK/Kalyan-Jupyter-Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8EDBAAC2-A936-A846-BBD2-7111B010D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478A22DF-51CA-F84E-8486-72B6E5911DA9}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{8EDBAAC2-A936-A846-BBD2-7111B010D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB71E0A-FBE9-C547-9DEF-CA8F1DADAC9A}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="18960" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="EX-DEBT-INSTRUMENT" sheetId="2" r:id="rId2"/>
+    <sheet name="EX-DEBT-LENDER" sheetId="4" r:id="rId2"/>
+    <sheet name="EX-DEBT-BORROWER" sheetId="3" r:id="rId3"/>
+    <sheet name="EX-DEBT-INSTRUMENT" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
   <si>
     <r>
       <rPr>
@@ -1590,6 +1592,88 @@
   </si>
   <si>
     <t>Direct investment: Intercompany lending</t>
+  </si>
+  <si>
+    <t>Borrower</t>
+  </si>
+  <si>
+    <t>Borrow_Category</t>
+  </si>
+  <si>
+    <t>General Government</t>
+  </si>
+  <si>
+    <t>Non-Government Debt</t>
+  </si>
+  <si>
+    <t>Central Bank</t>
+  </si>
+  <si>
+    <t>Deposit-Taking Corporations, except the Central Bank</t>
+  </si>
+  <si>
+    <t>Other Financial Corporations</t>
+  </si>
+  <si>
+    <t>Non-Financial Corporations</t>
+  </si>
+  <si>
+    <t>Households and Non-profit Institutions Serving Households
+(NPISHs)</t>
+  </si>
+  <si>
+    <t>External Assistance under Govt. Account</t>
+  </si>
+  <si>
+    <t>Other Govt. External Debt</t>
+  </si>
+  <si>
+    <t>Instrument code</t>
+  </si>
+  <si>
+    <t>SDRs</t>
+  </si>
+  <si>
+    <t>C&amp;D</t>
+  </si>
+  <si>
+    <t>Debt Sec</t>
+  </si>
+  <si>
+    <t>TCs &amp; Adv</t>
+  </si>
+  <si>
+    <t>Other Debt</t>
+  </si>
+  <si>
+    <t>DI (Inter-firm Loan)</t>
+  </si>
+  <si>
+    <t>Lender</t>
+  </si>
+  <si>
+    <t>Multilateral</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>IMF</t>
+  </si>
+  <si>
+    <t>Export Credit</t>
+  </si>
+  <si>
+    <t>NRI Deposits</t>
+  </si>
+  <si>
+    <t>Rupee Debt</t>
+  </si>
+  <si>
+    <t>Short-Term Debt</t>
+  </si>
+  <si>
+    <t>Commercial Borrowing</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1967,7 +2051,103 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
@@ -1978,6 +2158,216 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1987,311 +2377,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2743,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD120"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:U92"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="AB65" sqref="AB65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2780,1130 +2867,1130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123"/>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:30" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:30" ht="125.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
     </row>
     <row r="5" spans="1:30" ht="60.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:30" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:30" ht="154" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:30" ht="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:30" ht="294" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
     </row>
     <row r="11" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="57" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="59"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="112" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="94" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="94" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="95"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" spans="1:30" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="94" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="95"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="94" t="s">
+      <c r="I14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="34" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="34" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="34" t="s">
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="34" t="s">
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="35"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="44"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="A15" s="45">
         <v>1</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="60">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="45">
         <v>2</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="45">
         <v>4</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="60">
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="45">
         <v>5</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="60">
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="45">
         <v>6</v>
       </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="60">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="45">
         <v>7</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="60">
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="45">
         <v>8</v>
       </c>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="62"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="19">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51">
         <v>68.099999999999994</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="4">
         <v>71.3</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="51">
         <v>71.5</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19">
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="51">
         <v>3.5</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="19">
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="51">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="19">
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="51">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="19">
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="51">
         <v>0.3</v>
       </c>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="21"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="53"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="19">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51">
         <v>30.5</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="4">
         <v>30.9</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="51">
         <v>30.7</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="19">
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51">
         <v>0.2</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="19">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="51">
         <v>-0.2</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="19">
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="51">
         <v>0.5</v>
       </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="19">
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="51">
         <v>-0.7</v>
       </c>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="21"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="19">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51">
         <v>5.7</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="4">
         <v>23.3</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="51">
         <v>23.2</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19">
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="51">
         <v>17.399999999999999</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="19">
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="51">
         <v>-0.2</v>
       </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="19">
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="51">
         <v>304.2</v>
       </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="19">
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="51">
         <v>-0.7</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="21"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="53"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="19">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51">
         <v>6.5</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="4">
         <v>5.6</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="51">
         <v>5.6</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="19">
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="51">
         <v>-0.9</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="19">
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="51">
         <v>0</v>
       </c>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="19">
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="51">
         <v>-13.8</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="19">
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="51">
         <v>-0.8</v>
       </c>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="21"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="19">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51">
         <v>212.5</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="4">
         <v>224.9</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="51">
         <v>226.4</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="19">
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="51">
         <v>14</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="19">
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="51">
         <v>1.5</v>
       </c>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="19">
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="51">
         <v>6.6</v>
       </c>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="19">
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="51">
         <v>0.7</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="21"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="53"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="19">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51">
         <v>140.5</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="4">
         <v>141.6</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="51">
         <v>141.9</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="19">
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="51">
         <v>1.4</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="19">
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="51">
         <v>0.4</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="19">
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="51">
         <v>1</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="19">
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="51">
         <v>0.2</v>
       </c>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="21"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="53"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="19">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51">
         <v>1</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="51">
         <v>1</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19">
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="51">
         <v>0</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="19">
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="51">
         <v>0</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="19">
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="51">
         <v>-3</v>
       </c>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="19">
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="51">
         <v>1.6</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="21"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="53"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="19">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51">
         <v>103.5</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="4">
         <v>104.8</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="51">
         <v>114.6</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="19">
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="51">
         <v>11.1</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="19">
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="51">
         <v>9.9</v>
       </c>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="19">
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="51">
         <v>10.7</v>
       </c>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="19">
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="51">
         <v>9.4</v>
       </c>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="21"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="53"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="105"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="19">
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="51">
         <v>99.6</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="4">
         <v>101.6</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="51">
         <v>110.5</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="19">
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51">
         <v>10.9</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="19">
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="51">
         <v>9</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="19">
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="51">
         <v>11</v>
       </c>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="19">
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="51">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="21"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66">
         <v>568.29999999999995</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="6">
         <v>603.4</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="66">
         <v>614.9</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="46">
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="66">
         <v>46.6</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="46">
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="66">
         <v>11.5</v>
       </c>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="46">
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="66">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="46">
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="66">
         <v>1.9</v>
       </c>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="68"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="105"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="105"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="59"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="19">
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="51">
         <v>464.8</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="4">
         <v>498.6</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="51">
         <v>500.3</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="19">
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="51">
         <v>35.5</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="19">
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="51">
         <v>1.7</v>
       </c>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="19">
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="51">
         <v>7.6</v>
       </c>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="19">
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="51">
         <v>0.3</v>
       </c>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="21"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="53"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="19">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="51">
         <v>103.5</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="4">
         <v>104.8</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="51">
         <v>114.6</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="19">
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="51">
         <v>11.1</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="19">
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="51">
         <v>9.9</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="19">
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="51">
         <v>10.7</v>
       </c>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="19">
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="51">
         <v>9.4</v>
       </c>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="21"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
     </row>
     <row r="30" spans="1:30" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="115"/>
-      <c r="AD30" s="115"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
     </row>
     <row r="31" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="57" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="59"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="35"/>
     </row>
     <row r="33" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="94" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="112" t="s">
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="W33" s="113"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="94" t="s">
+      <c r="W33" s="37"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="95"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="41"/>
       <c r="AB33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3912,41 +3999,41 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60">
+      <c r="A34" s="45">
         <v>1</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="60">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="45">
         <v>2</v>
       </c>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="60">
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="45">
         <v>3</v>
       </c>
-      <c r="W34" s="61"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="60">
+      <c r="W34" s="46"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="45">
         <v>4</v>
       </c>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="62"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="47"/>
       <c r="AB34" s="3">
         <v>5</v>
       </c>
@@ -3955,41 +4042,41 @@
       </c>
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="46">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66">
         <v>7.6</v>
       </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="46">
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="66">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W35" s="47"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="46">
+      <c r="W35" s="67"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="66">
         <v>8.9</v>
       </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="48"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="68"/>
       <c r="AB35" s="6">
         <v>106.5</v>
       </c>
@@ -3998,78 +4085,78 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="19">
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="51">
         <v>0.9</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="105"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="59"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="19">
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="51">
         <v>6.7</v>
       </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="19">
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="51">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W37" s="20"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="19">
+      <c r="W37" s="52"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="51">
         <v>8.9</v>
       </c>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="21"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="53"/>
       <c r="AB37" s="4">
         <v>106.5</v>
       </c>
@@ -4078,41 +4165,41 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46">
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66">
         <v>0.1</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="46">
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="66">
         <v>0</v>
       </c>
-      <c r="W38" s="47"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="46">
+      <c r="W38" s="67"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="66">
         <v>0</v>
       </c>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="48"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="68"/>
       <c r="AB38" s="6">
         <v>0</v>
       </c>
@@ -4121,78 +4208,78 @@
       </c>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="19">
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="51">
         <v>0.1</v>
       </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="105"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="59"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="19">
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="51">
         <v>0</v>
       </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="19">
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="51">
         <v>0</v>
       </c>
-      <c r="W40" s="20"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="19">
+      <c r="W40" s="52"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="51">
         <v>0</v>
       </c>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="21"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="53"/>
       <c r="AB40" s="4">
         <v>0</v>
       </c>
@@ -4201,41 +4288,41 @@
       </c>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="46">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66">
         <v>105.8</v>
       </c>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="46">
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="66">
         <v>19.600000000000001</v>
       </c>
-      <c r="W41" s="47"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="46">
+      <c r="W41" s="67"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="66">
         <v>10.1</v>
       </c>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="48"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="68"/>
       <c r="AB41" s="6">
         <v>26.7</v>
       </c>
@@ -4244,78 +4331,78 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="19">
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="51">
         <v>1.5</v>
       </c>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="105"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="105"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="58"/>
+      <c r="AA42" s="59"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="19">
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="51">
         <v>104.3</v>
       </c>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="19">
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="51">
         <v>19.600000000000001</v>
       </c>
-      <c r="W43" s="20"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="19">
+      <c r="W43" s="52"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="51">
         <v>10.1</v>
       </c>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="21"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="53"/>
       <c r="AB43" s="4">
         <v>26.7</v>
       </c>
@@ -4324,41 +4411,41 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46">
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="66">
         <v>153.30000000000001</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="46">
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="66">
         <v>26.2</v>
       </c>
-      <c r="W44" s="47"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="46">
+      <c r="W44" s="67"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="66">
         <v>28.1</v>
       </c>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="48"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="68"/>
       <c r="AB44" s="6">
         <v>87.3</v>
       </c>
@@ -4367,78 +4454,78 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="19">
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="51">
         <v>112.1</v>
       </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="103"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="105"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="59"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="4">
         <v>112.1</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="19">
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="51">
         <v>41.2</v>
       </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="19">
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="53"/>
+      <c r="V46" s="51">
         <v>26.2</v>
       </c>
-      <c r="W46" s="20"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="19">
+      <c r="W46" s="52"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="51">
         <v>28.1</v>
       </c>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="21"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="53"/>
       <c r="AB46" s="4">
         <v>87.3</v>
       </c>
@@ -4447,41 +4534,41 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="46">
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="66">
         <v>11.6</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="46">
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="66">
         <v>10.9</v>
       </c>
-      <c r="W47" s="47"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="46">
+      <c r="W47" s="67"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="66">
         <v>7.9</v>
       </c>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="48"/>
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="68"/>
       <c r="AB47" s="6">
         <v>21.9</v>
       </c>
@@ -4490,78 +4577,78 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="19">
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="51">
         <v>1.6</v>
       </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="103"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="103"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="105"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="59"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="4">
         <v>1.6</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="19">
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="51">
         <v>10.1</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="19">
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="51">
         <v>10.9</v>
       </c>
-      <c r="W49" s="20"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="19">
+      <c r="W49" s="52"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="51">
         <v>7.9</v>
       </c>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="21"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="53"/>
       <c r="AB49" s="4">
         <v>21.9</v>
       </c>
@@ -4570,41 +4657,41 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="46">
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="66">
         <v>141.69999999999999</v>
       </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="46">
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="66">
         <v>15.3</v>
       </c>
-      <c r="W50" s="47"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="46">
+      <c r="W50" s="67"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="66">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z50" s="47"/>
-      <c r="AA50" s="48"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="68"/>
       <c r="AB50" s="6">
         <v>65.400000000000006</v>
       </c>
@@ -4613,78 +4700,78 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="19">
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="51">
         <v>110.5</v>
       </c>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="103"/>
-      <c r="W51" s="104"/>
-      <c r="X51" s="105"/>
-      <c r="Y51" s="103"/>
-      <c r="Z51" s="104"/>
-      <c r="AA51" s="105"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="58"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="58"/>
+      <c r="AA51" s="59"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="4">
         <v>110.5</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="19">
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="51">
         <v>31.2</v>
       </c>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="19">
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="51">
         <v>15.3</v>
       </c>
-      <c r="W52" s="20"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="19">
+      <c r="W52" s="52"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="51">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="21"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="53"/>
       <c r="AB52" s="4">
         <v>65.400000000000006</v>
       </c>
@@ -4693,41 +4780,41 @@
       </c>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="46">
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="66">
         <v>0</v>
       </c>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="46">
+      <c r="N53" s="67"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="66">
         <v>0</v>
       </c>
-      <c r="W53" s="47"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="46">
+      <c r="W53" s="67"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="66">
         <v>0</v>
       </c>
-      <c r="Z53" s="47"/>
-      <c r="AA53" s="48"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="68"/>
       <c r="AB53" s="6">
         <v>0</v>
       </c>
@@ -4736,78 +4823,78 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="19">
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="51">
         <v>0</v>
       </c>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="105"/>
-      <c r="Y54" s="103"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="105"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="59"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="19">
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="51">
         <v>0</v>
       </c>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="19">
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="51">
         <v>0</v>
       </c>
-      <c r="W55" s="20"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="19">
+      <c r="W55" s="52"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="51">
         <v>0</v>
       </c>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="21"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="53"/>
       <c r="AB55" s="4">
         <v>0</v>
       </c>
@@ -4816,41 +4903,41 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="46">
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="66">
         <v>6</v>
       </c>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="46">
+      <c r="N56" s="67"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="66">
         <v>3</v>
       </c>
-      <c r="W56" s="47"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="46">
+      <c r="W56" s="67"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="66">
         <v>3.4</v>
       </c>
-      <c r="Z56" s="47"/>
-      <c r="AA56" s="48"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="68"/>
       <c r="AB56" s="6">
         <v>14</v>
       </c>
@@ -4859,78 +4946,78 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="19">
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="51">
         <v>114.6</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="105"/>
-      <c r="Y57" s="103"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="105"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="58"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="58"/>
+      <c r="AA57" s="59"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="4">
         <v>114.6</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="19">
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="51">
         <v>158.19999999999999</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="19">
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="51">
         <v>57.1</v>
       </c>
-      <c r="W58" s="20"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="19">
+      <c r="W58" s="52"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="51">
         <v>50.4</v>
       </c>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="21"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="53"/>
       <c r="AB58" s="4">
         <v>234.6</v>
       </c>
@@ -4939,41 +5026,41 @@
       </c>
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="46">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="66">
         <v>272.8</v>
       </c>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="48"/>
-      <c r="V59" s="46">
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="66">
         <v>57.1</v>
       </c>
-      <c r="W59" s="47"/>
-      <c r="X59" s="48"/>
-      <c r="Y59" s="46">
+      <c r="W59" s="67"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="66">
         <v>50.4</v>
       </c>
-      <c r="Z59" s="47"/>
-      <c r="AA59" s="48"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="68"/>
       <c r="AB59" s="6">
         <v>234.6</v>
       </c>
@@ -4982,1124 +5069,1124 @@
       </c>
     </row>
     <row r="60" spans="1:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="98"/>
-      <c r="L60" s="98"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
-      <c r="Y60" s="99"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="99"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
+      <c r="Q60" s="84"/>
+      <c r="R60" s="84"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="84"/>
+      <c r="U60" s="84"/>
+      <c r="V60" s="84"/>
+      <c r="W60" s="84"/>
+      <c r="X60" s="84"/>
+      <c r="Y60" s="84"/>
+      <c r="Z60" s="84"/>
+      <c r="AA60" s="84"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="9"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="100" t="s">
+      <c r="A61" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="102"/>
-      <c r="P61" s="102"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="102"/>
-      <c r="S61" s="102"/>
-      <c r="T61" s="102"/>
-      <c r="U61" s="102"/>
-      <c r="V61" s="102"/>
-      <c r="W61" s="102"/>
-      <c r="X61" s="102"/>
-      <c r="Y61" s="102"/>
-      <c r="Z61" s="102"/>
-      <c r="AA61" s="102"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="87"/>
+      <c r="R61" s="87"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="87"/>
+      <c r="V61" s="87"/>
+      <c r="W61" s="87"/>
+      <c r="X61" s="87"/>
+      <c r="Y61" s="87"/>
+      <c r="Z61" s="87"/>
+      <c r="AA61" s="87"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="11">
         <v>44.4</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
-      <c r="V62" s="83"/>
-      <c r="W62" s="83"/>
-      <c r="X62" s="83"/>
-      <c r="Y62" s="83"/>
-      <c r="Z62" s="83"/>
-      <c r="AA62" s="83"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
       <c r="AB62" s="12"/>
       <c r="AC62" s="13">
         <v>43.1</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
-      <c r="R63" s="84"/>
-      <c r="S63" s="84"/>
-      <c r="T63" s="84"/>
-      <c r="U63" s="84"/>
-      <c r="V63" s="84"/>
-      <c r="W63" s="84"/>
-      <c r="X63" s="84"/>
-      <c r="Y63" s="84"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="91"/>
+      <c r="J63" s="91"/>
+      <c r="K63" s="91"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="91"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="91"/>
+      <c r="P63" s="91"/>
+      <c r="Q63" s="91"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+      <c r="X63" s="91"/>
+      <c r="Y63" s="91"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="91" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="92"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="92"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="92"/>
-      <c r="S64" s="92"/>
-      <c r="T64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="93"/>
+      <c r="T64" s="94"/>
     </row>
     <row r="65" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="88"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="94" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="95"/>
-      <c r="M65" s="94" t="s">
+      <c r="L65" s="41"/>
+      <c r="M65" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="95"/>
-      <c r="Q65" s="94" t="s">
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="95"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="41"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="60">
+      <c r="A66" s="45">
         <v>1</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="60">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="45">
         <v>2</v>
       </c>
-      <c r="L66" s="62"/>
-      <c r="M66" s="60">
+      <c r="L66" s="47"/>
+      <c r="M66" s="45">
         <v>3</v>
       </c>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="60">
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="45">
         <v>4</v>
       </c>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="62"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="47"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="19">
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="51">
         <v>110.9</v>
       </c>
-      <c r="L67" s="21"/>
-      <c r="M67" s="19">
+      <c r="L67" s="53"/>
+      <c r="M67" s="51">
         <v>132</v>
       </c>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="19">
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="51">
         <v>131.4</v>
       </c>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="21"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="53"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="19">
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="51">
         <v>4.2</v>
       </c>
-      <c r="L68" s="21"/>
-      <c r="M68" s="19">
+      <c r="L68" s="53"/>
+      <c r="M68" s="51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="19">
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="51">
         <v>4.3</v>
       </c>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="21"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="53"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="19">
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="51">
         <v>82.2</v>
       </c>
-      <c r="L69" s="21"/>
-      <c r="M69" s="19">
+      <c r="L69" s="53"/>
+      <c r="M69" s="51">
         <v>85.7</v>
       </c>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="19">
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="51">
         <v>85.9</v>
       </c>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="21"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="53"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="19">
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="51">
         <v>28.7</v>
       </c>
-      <c r="L70" s="21"/>
-      <c r="M70" s="19">
+      <c r="L70" s="53"/>
+      <c r="M70" s="51">
         <v>46.3</v>
       </c>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="19">
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="51">
         <v>45.4</v>
       </c>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="21"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="53"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="19">
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="51">
         <v>457.4</v>
       </c>
-      <c r="L71" s="21"/>
-      <c r="M71" s="19">
+      <c r="L71" s="53"/>
+      <c r="M71" s="51">
         <v>471.4</v>
       </c>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="19">
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="51">
         <v>483.6</v>
       </c>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="21"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="53"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="19">
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="51">
         <v>17.5</v>
       </c>
-      <c r="L72" s="21"/>
-      <c r="M72" s="19">
+      <c r="L72" s="53"/>
+      <c r="M72" s="51">
         <v>15.9</v>
       </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="19">
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="51">
         <v>15.7</v>
       </c>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="21"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="53"/>
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="19">
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="51">
         <v>0.2</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="19">
+      <c r="L73" s="53"/>
+      <c r="M73" s="51">
         <v>0.1</v>
       </c>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="19">
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="51">
         <v>0.1</v>
       </c>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="21"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="53"/>
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="19">
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="51">
         <v>159.4</v>
       </c>
-      <c r="L74" s="21"/>
-      <c r="M74" s="19">
+      <c r="L74" s="53"/>
+      <c r="M74" s="51">
         <v>160.1</v>
       </c>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="19">
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="51">
         <v>162.19999999999999</v>
       </c>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="21"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="53"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="19">
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="51">
         <v>46.7</v>
       </c>
-      <c r="L75" s="21"/>
-      <c r="M75" s="19">
+      <c r="L75" s="53"/>
+      <c r="M75" s="51">
         <v>52.3</v>
       </c>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="19">
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="53"/>
+      <c r="Q75" s="51">
         <v>52.4</v>
       </c>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="21"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="53"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="19">
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="51">
         <v>225.5</v>
       </c>
-      <c r="L76" s="21"/>
-      <c r="M76" s="19">
+      <c r="L76" s="53"/>
+      <c r="M76" s="51">
         <v>232.8</v>
       </c>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="19">
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="51">
         <v>242.5</v>
       </c>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="21"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="53"/>
     </row>
     <row r="77" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="73"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="75">
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="100"/>
+      <c r="K77" s="101">
         <v>0</v>
       </c>
-      <c r="L77" s="76"/>
-      <c r="M77" s="75">
+      <c r="L77" s="102"/>
+      <c r="M77" s="101">
         <v>0</v>
       </c>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="75">
+      <c r="N77" s="103"/>
+      <c r="O77" s="103"/>
+      <c r="P77" s="102"/>
+      <c r="Q77" s="101">
         <v>0</v>
       </c>
-      <c r="R77" s="77"/>
-      <c r="S77" s="77"/>
-      <c r="T77" s="76"/>
+      <c r="R77" s="103"/>
+      <c r="S77" s="103"/>
+      <c r="T77" s="102"/>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="64"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="19">
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="51">
         <v>25.7</v>
       </c>
-      <c r="L78" s="21"/>
-      <c r="M78" s="19">
+      <c r="L78" s="53"/>
+      <c r="M78" s="51">
         <v>26.1</v>
       </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="19">
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="51">
         <v>26.4</v>
       </c>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="21"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="52"/>
+      <c r="T78" s="53"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="19">
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="51">
         <v>568.29999999999995</v>
       </c>
-      <c r="L79" s="21"/>
-      <c r="M79" s="19">
+      <c r="L79" s="53"/>
+      <c r="M79" s="51">
         <v>603.4</v>
       </c>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="19">
+      <c r="N79" s="52"/>
+      <c r="O79" s="52"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="51">
         <v>614.9</v>
       </c>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="21"/>
+      <c r="R79" s="52"/>
+      <c r="S79" s="52"/>
+      <c r="T79" s="53"/>
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="66" t="s">
+      <c r="A80" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="67"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="19">
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="51">
         <v>21.7</v>
       </c>
-      <c r="L80" s="21"/>
-      <c r="M80" s="19">
+      <c r="L80" s="53"/>
+      <c r="M80" s="51">
         <v>20.3</v>
       </c>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="19">
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="51">
         <v>20</v>
       </c>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="21"/>
+      <c r="R80" s="52"/>
+      <c r="S80" s="52"/>
+      <c r="T80" s="53"/>
     </row>
     <row r="81" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
-      <c r="R81" s="50"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="50"/>
-      <c r="V81" s="50"/>
-      <c r="W81" s="50"/>
-      <c r="X81" s="50"/>
-      <c r="Y81" s="50"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="104"/>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="104"/>
+      <c r="M81" s="104"/>
+      <c r="N81" s="104"/>
+      <c r="O81" s="104"/>
+      <c r="P81" s="104"/>
+      <c r="Q81" s="104"/>
+      <c r="R81" s="104"/>
+      <c r="S81" s="104"/>
+      <c r="T81" s="104"/>
+      <c r="U81" s="104"/>
+      <c r="V81" s="104"/>
+      <c r="W81" s="104"/>
+      <c r="X81" s="104"/>
+      <c r="Y81" s="104"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="57" t="s">
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="58"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="59"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="35"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="54"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="57" t="s">
+      <c r="A83" s="108"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="57" t="s">
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="57" t="s">
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="58"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="59"/>
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="35"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="60">
+      <c r="A84" s="45">
         <v>1</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="60">
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="45">
         <v>2</v>
       </c>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="60">
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="47"/>
+      <c r="J84" s="45">
         <v>3</v>
       </c>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="60">
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="45">
         <v>4</v>
       </c>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
-      <c r="S84" s="61"/>
-      <c r="T84" s="61"/>
-      <c r="U84" s="62"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="47"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="19">
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="51">
         <v>5.7</v>
       </c>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="19">
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="53"/>
+      <c r="J85" s="51">
         <v>23.3</v>
       </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="19">
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="53"/>
+      <c r="O85" s="51">
         <v>23.2</v>
       </c>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="21"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="52"/>
+      <c r="R85" s="52"/>
+      <c r="S85" s="52"/>
+      <c r="T85" s="52"/>
+      <c r="U85" s="53"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="19">
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="51">
         <v>142.5</v>
       </c>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="19">
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="51">
         <v>142.9</v>
       </c>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="19">
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="51">
         <v>143.5</v>
       </c>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="21"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
+      <c r="R86" s="52"/>
+      <c r="S86" s="52"/>
+      <c r="T86" s="52"/>
+      <c r="U86" s="53"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="19">
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="51">
         <v>99.6</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="19">
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="51">
         <v>105.6</v>
       </c>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="19">
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="53"/>
+      <c r="O87" s="51">
         <v>104.4</v>
       </c>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="21"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="53"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="19">
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="51">
         <v>192.2</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="19">
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="51">
         <v>201.1</v>
       </c>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="19">
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="51">
         <v>204</v>
       </c>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="21"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="52"/>
+      <c r="R88" s="52"/>
+      <c r="S88" s="52"/>
+      <c r="T88" s="52"/>
+      <c r="U88" s="53"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="19">
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="51">
         <v>102.6</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="19">
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="51">
         <v>104.4</v>
       </c>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="19">
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="51">
         <v>113.5</v>
       </c>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="21"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="52"/>
+      <c r="R89" s="52"/>
+      <c r="S89" s="52"/>
+      <c r="T89" s="52"/>
+      <c r="U89" s="53"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="19">
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="51">
         <v>0</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="19">
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="51">
         <v>0</v>
       </c>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="19">
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="53"/>
+      <c r="O90" s="51">
         <v>0</v>
       </c>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="21"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="52"/>
+      <c r="U90" s="53"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="19">
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="51">
         <v>25.7</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="19">
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="53"/>
+      <c r="J91" s="51">
         <v>26.1</v>
       </c>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="19">
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="53"/>
+      <c r="O91" s="51">
         <v>26.4</v>
       </c>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="21"/>
+      <c r="P91" s="52"/>
+      <c r="Q91" s="52"/>
+      <c r="R91" s="52"/>
+      <c r="S91" s="52"/>
+      <c r="T91" s="52"/>
+      <c r="U91" s="53"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="46">
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="66">
         <v>568.29999999999995</v>
       </c>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="46">
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="66">
         <v>603.4</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="46">
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="67"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="66">
         <v>614.9</v>
       </c>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="48"/>
+      <c r="P92" s="67"/>
+      <c r="Q92" s="67"/>
+      <c r="R92" s="67"/>
+      <c r="S92" s="67"/>
+      <c r="T92" s="67"/>
+      <c r="U92" s="68"/>
     </row>
     <row r="93" spans="1:25" ht="17.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="49"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="49"/>
-      <c r="T93" s="49"/>
-      <c r="U93" s="49"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="111"/>
+      <c r="I93" s="111"/>
+      <c r="J93" s="111"/>
+      <c r="K93" s="111"/>
+      <c r="L93" s="111"/>
+      <c r="M93" s="111"/>
+      <c r="N93" s="111"/>
+      <c r="O93" s="111"/>
+      <c r="P93" s="111"/>
+      <c r="Q93" s="111"/>
+      <c r="R93" s="111"/>
+      <c r="S93" s="111"/>
+      <c r="T93" s="111"/>
+      <c r="U93" s="111"/>
     </row>
     <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="25"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="25"/>
-      <c r="U94" s="25"/>
-      <c r="V94" s="25"/>
-      <c r="W94" s="25"/>
-      <c r="X94" s="25"/>
-      <c r="Y94" s="25"/>
+      <c r="B94" s="112"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
+      <c r="G94" s="112"/>
+      <c r="H94" s="112"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
+      <c r="L94" s="112"/>
+      <c r="M94" s="112"/>
+      <c r="N94" s="112"/>
+      <c r="O94" s="112"/>
+      <c r="P94" s="112"/>
+      <c r="Q94" s="112"/>
+      <c r="R94" s="112"/>
+      <c r="S94" s="112"/>
+      <c r="T94" s="112"/>
+      <c r="U94" s="112"/>
+      <c r="V94" s="112"/>
+      <c r="W94" s="112"/>
+      <c r="X94" s="112"/>
+      <c r="Y94" s="112"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="29"/>
-      <c r="S95" s="29"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="30"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="116"/>
+      <c r="R95" s="116"/>
+      <c r="S95" s="116"/>
+      <c r="T95" s="116"/>
+      <c r="U95" s="116"/>
+      <c r="V95" s="117"/>
     </row>
     <row r="96" spans="1:25" ht="120.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="27"/>
+      <c r="A96" s="114"/>
       <c r="B96" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="31" t="s">
+      <c r="D96" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="32"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34" t="s">
+      <c r="E96" s="119"/>
+      <c r="F96" s="120"/>
+      <c r="G96" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="H96" s="35"/>
-      <c r="I96" s="34" t="s">
+      <c r="H96" s="44"/>
+      <c r="I96" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="35"/>
-      <c r="N96" s="34" t="s">
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="35"/>
-      <c r="R96" s="34" t="s">
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="35"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="44"/>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
@@ -6111,35 +6198,35 @@
       <c r="C97" s="15">
         <v>3</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D97" s="121">
         <v>4</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="37">
+      <c r="E97" s="122"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="121">
         <v>5</v>
       </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="37">
+      <c r="H97" s="123"/>
+      <c r="I97" s="121">
         <v>6</v>
       </c>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="37">
+      <c r="J97" s="122"/>
+      <c r="K97" s="122"/>
+      <c r="L97" s="122"/>
+      <c r="M97" s="123"/>
+      <c r="N97" s="121">
         <v>7</v>
       </c>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="37">
+      <c r="O97" s="122"/>
+      <c r="P97" s="122"/>
+      <c r="Q97" s="123"/>
+      <c r="R97" s="121">
         <v>8</v>
       </c>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="39"/>
+      <c r="S97" s="122"/>
+      <c r="T97" s="122"/>
+      <c r="U97" s="122"/>
+      <c r="V97" s="123"/>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16">
@@ -6151,35 +6238,35 @@
       <c r="C98" s="4">
         <v>28.3</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="51">
         <v>35.299999999999997</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="19">
+      <c r="E98" s="52"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="51">
         <v>7</v>
       </c>
-      <c r="H98" s="21"/>
-      <c r="I98" s="19">
+      <c r="H98" s="53"/>
+      <c r="I98" s="51">
         <v>45.9</v>
       </c>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="19">
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="53"/>
+      <c r="N98" s="51">
         <v>146.5</v>
       </c>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="19">
+      <c r="O98" s="52"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="51">
         <v>10.199999999999999</v>
       </c>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="21"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="53"/>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16">
@@ -6191,35 +6278,35 @@
       <c r="C99" s="4">
         <v>26.6</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="51">
         <v>26.2</v>
       </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="19">
+      <c r="E99" s="52"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="51">
         <v>23.1</v>
       </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="19">
+      <c r="H99" s="53"/>
+      <c r="I99" s="51">
         <v>44.7</v>
       </c>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="19">
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="51">
         <v>23.2</v>
       </c>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="19">
+      <c r="O99" s="52"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="53"/>
+      <c r="R99" s="51">
         <v>5.4</v>
       </c>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="21"/>
+      <c r="S99" s="52"/>
+      <c r="T99" s="52"/>
+      <c r="U99" s="52"/>
+      <c r="V99" s="53"/>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16">
@@ -6231,35 +6318,35 @@
       <c r="C100" s="4">
         <v>22.1</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="51">
         <v>16.600000000000001</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="19">
+      <c r="E100" s="52"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="51">
         <v>41.7</v>
       </c>
-      <c r="H100" s="21"/>
-      <c r="I100" s="19">
+      <c r="H100" s="53"/>
+      <c r="I100" s="51">
         <v>35.4</v>
       </c>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="19">
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="51">
         <v>8.6</v>
       </c>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="19">
+      <c r="O100" s="52"/>
+      <c r="P100" s="52"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="51">
         <v>3.6</v>
       </c>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="21"/>
+      <c r="S100" s="52"/>
+      <c r="T100" s="52"/>
+      <c r="U100" s="52"/>
+      <c r="V100" s="53"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16">
@@ -6271,35 +6358,35 @@
       <c r="C101" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="124" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="19">
+      <c r="E101" s="125"/>
+      <c r="F101" s="126"/>
+      <c r="G101" s="51">
         <v>109</v>
       </c>
-      <c r="H101" s="21"/>
-      <c r="I101" s="19">
+      <c r="H101" s="53"/>
+      <c r="I101" s="51">
         <v>28.4</v>
       </c>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="19">
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="51">
         <v>12.9</v>
       </c>
-      <c r="O101" s="20"/>
-      <c r="P101" s="20"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="19">
+      <c r="O101" s="52"/>
+      <c r="P101" s="52"/>
+      <c r="Q101" s="53"/>
+      <c r="R101" s="51">
         <v>14</v>
       </c>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="21"/>
+      <c r="S101" s="52"/>
+      <c r="T101" s="52"/>
+      <c r="U101" s="52"/>
+      <c r="V101" s="53"/>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16">
@@ -6311,35 +6398,35 @@
       <c r="C102" s="4">
         <v>17.7</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="51">
         <v>4.7</v>
       </c>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="19">
+      <c r="E102" s="52"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="51">
         <v>115.6</v>
       </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="19">
+      <c r="H102" s="53"/>
+      <c r="I102" s="51">
         <v>23</v>
       </c>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="19">
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="51">
         <v>14.1</v>
       </c>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="19">
+      <c r="O102" s="52"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="53"/>
+      <c r="R102" s="51">
         <v>16.3</v>
       </c>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="21"/>
+      <c r="S102" s="52"/>
+      <c r="T102" s="52"/>
+      <c r="U102" s="52"/>
+      <c r="V102" s="53"/>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16">
@@ -6351,35 +6438,35 @@
       <c r="C103" s="4">
         <v>18.3</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="51">
         <v>4.8</v>
       </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="19">
+      <c r="E103" s="52"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="51">
         <v>138</v>
       </c>
-      <c r="H103" s="21"/>
-      <c r="I103" s="19">
+      <c r="H103" s="53"/>
+      <c r="I103" s="51">
         <v>19.7</v>
       </c>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="19">
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="53"/>
+      <c r="N103" s="51">
         <v>14.8</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="19">
+      <c r="O103" s="52"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="51">
         <v>20.399999999999999</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="21"/>
+      <c r="S103" s="52"/>
+      <c r="T103" s="52"/>
+      <c r="U103" s="52"/>
+      <c r="V103" s="53"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16">
@@ -6391,35 +6478,35 @@
       <c r="C104" s="4">
         <v>20.7</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="19">
+      <c r="E104" s="52"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="51">
         <v>112.2</v>
       </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="19">
+      <c r="H104" s="53"/>
+      <c r="I104" s="51">
         <v>18.7</v>
       </c>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="20"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="19">
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="51">
         <v>17.2</v>
       </c>
-      <c r="O104" s="20"/>
-      <c r="P104" s="20"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="19">
+      <c r="O104" s="52"/>
+      <c r="P104" s="52"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="51">
         <v>19.3</v>
       </c>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="21"/>
+      <c r="S104" s="52"/>
+      <c r="T104" s="52"/>
+      <c r="U104" s="52"/>
+      <c r="V104" s="53"/>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16">
@@ -6431,35 +6518,35 @@
       <c r="C105" s="4">
         <v>18.5</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="51">
         <v>5.8</v>
       </c>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="19">
+      <c r="E105" s="52"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="51">
         <v>106.9</v>
       </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="19">
+      <c r="H105" s="53"/>
+      <c r="I105" s="51">
         <v>16.8</v>
       </c>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="19">
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="51">
         <v>18.8</v>
       </c>
-      <c r="O105" s="20"/>
-      <c r="P105" s="20"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="19">
+      <c r="O105" s="52"/>
+      <c r="P105" s="52"/>
+      <c r="Q105" s="53"/>
+      <c r="R105" s="51">
         <v>20.100000000000001</v>
       </c>
-      <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
-      <c r="V105" s="21"/>
+      <c r="S105" s="52"/>
+      <c r="T105" s="52"/>
+      <c r="U105" s="52"/>
+      <c r="V105" s="53"/>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16">
@@ -6471,35 +6558,35 @@
       <c r="C106" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="19">
+      <c r="E106" s="52"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="51">
         <v>95.9</v>
       </c>
-      <c r="H106" s="21"/>
-      <c r="I106" s="19">
+      <c r="H106" s="53"/>
+      <c r="I106" s="51">
         <v>14.9</v>
       </c>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="20"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="19">
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="51">
         <v>21.3</v>
       </c>
-      <c r="O106" s="20"/>
-      <c r="P106" s="20"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="19">
+      <c r="O106" s="52"/>
+      <c r="P106" s="52"/>
+      <c r="Q106" s="53"/>
+      <c r="R106" s="51">
         <v>20.399999999999999</v>
       </c>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
-      <c r="V106" s="21"/>
+      <c r="S106" s="52"/>
+      <c r="T106" s="52"/>
+      <c r="U106" s="52"/>
+      <c r="V106" s="53"/>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16">
@@ -6511,35 +6598,35 @@
       <c r="C107" s="4">
         <v>21.1</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="51">
         <v>6</v>
       </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="19">
+      <c r="E107" s="52"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="51">
         <v>81.599999999999994</v>
       </c>
-      <c r="H107" s="21"/>
-      <c r="I107" s="19">
+      <c r="H107" s="53"/>
+      <c r="I107" s="51">
         <v>13.3</v>
       </c>
-      <c r="J107" s="20"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="20"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="19">
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="51">
         <v>26.6</v>
       </c>
-      <c r="O107" s="20"/>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="19">
+      <c r="O107" s="52"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="51">
         <v>21.7</v>
       </c>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="21"/>
+      <c r="S107" s="52"/>
+      <c r="T107" s="52"/>
+      <c r="U107" s="52"/>
+      <c r="V107" s="53"/>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16">
@@ -6551,35 +6638,35 @@
       <c r="C108" s="4">
         <v>22.4</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="51">
         <v>5.9</v>
       </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="19">
+      <c r="E108" s="52"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="51">
         <v>71.3</v>
       </c>
-      <c r="H108" s="21"/>
-      <c r="I108" s="19">
+      <c r="H108" s="53"/>
+      <c r="I108" s="51">
         <v>11.1</v>
       </c>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="19">
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="51">
         <v>33.1</v>
       </c>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="19">
+      <c r="O108" s="52"/>
+      <c r="P108" s="52"/>
+      <c r="Q108" s="53"/>
+      <c r="R108" s="51">
         <v>23.6</v>
       </c>
-      <c r="S108" s="20"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="20"/>
-      <c r="V108" s="21"/>
+      <c r="S108" s="52"/>
+      <c r="T108" s="52"/>
+      <c r="U108" s="52"/>
+      <c r="V108" s="53"/>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16">
@@ -6591,35 +6678,35 @@
       <c r="C109" s="4">
         <v>23.9</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="51">
         <v>5.9</v>
       </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="19">
+      <c r="E109" s="52"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="51">
         <v>68.2</v>
       </c>
-      <c r="H109" s="21"/>
-      <c r="I109" s="19">
+      <c r="H109" s="53"/>
+      <c r="I109" s="51">
         <v>10.4</v>
       </c>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="19">
+      <c r="J109" s="52"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="52"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="51">
         <v>30.1</v>
       </c>
-      <c r="O109" s="20"/>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="19">
+      <c r="O109" s="52"/>
+      <c r="P109" s="52"/>
+      <c r="Q109" s="53"/>
+      <c r="R109" s="51">
         <v>20.5</v>
       </c>
-      <c r="S109" s="20"/>
-      <c r="T109" s="20"/>
-      <c r="U109" s="20"/>
-      <c r="V109" s="21"/>
+      <c r="S109" s="52"/>
+      <c r="T109" s="52"/>
+      <c r="U109" s="52"/>
+      <c r="V109" s="53"/>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16">
@@ -6631,35 +6718,35 @@
       <c r="C110" s="4">
         <v>23.8</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="51">
         <v>7.6</v>
       </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19">
+      <c r="E110" s="52"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="51">
         <v>72</v>
       </c>
-      <c r="H110" s="21"/>
-      <c r="I110" s="19">
+      <c r="H110" s="53"/>
+      <c r="I110" s="51">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="19">
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="51">
         <v>25</v>
       </c>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="19">
+      <c r="O110" s="52"/>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="51">
         <v>18</v>
       </c>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="21"/>
+      <c r="S110" s="52"/>
+      <c r="T110" s="52"/>
+      <c r="U110" s="52"/>
+      <c r="V110" s="53"/>
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16">
@@ -6671,35 +6758,35 @@
       <c r="C111" s="4">
         <v>23.4</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D111" s="51">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="19">
+      <c r="E111" s="52"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="51">
         <v>74.3</v>
       </c>
-      <c r="H111" s="21"/>
-      <c r="I111" s="19">
+      <c r="H111" s="53"/>
+      <c r="I111" s="51">
         <v>9</v>
       </c>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="19">
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="51">
         <v>23.2</v>
       </c>
-      <c r="O111" s="20"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="19">
+      <c r="O111" s="52"/>
+      <c r="P111" s="52"/>
+      <c r="Q111" s="53"/>
+      <c r="R111" s="51">
         <v>17.2</v>
       </c>
-      <c r="S111" s="20"/>
-      <c r="T111" s="20"/>
-      <c r="U111" s="20"/>
-      <c r="V111" s="21"/>
+      <c r="S111" s="52"/>
+      <c r="T111" s="52"/>
+      <c r="U111" s="52"/>
+      <c r="V111" s="53"/>
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16">
@@ -6711,35 +6798,35 @@
       <c r="C112" s="4">
         <v>19.8</v>
       </c>
-      <c r="D112" s="19">
+      <c r="D112" s="51">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="19">
+      <c r="E112" s="52"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="51">
         <v>78.5</v>
       </c>
-      <c r="H112" s="21"/>
-      <c r="I112" s="19">
+      <c r="H112" s="53"/>
+      <c r="I112" s="51">
         <v>9.4</v>
       </c>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="19">
+      <c r="J112" s="52"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="51">
         <v>23.8</v>
       </c>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="21"/>
-      <c r="R112" s="19">
+      <c r="O112" s="52"/>
+      <c r="P112" s="52"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="51">
         <v>18.7</v>
       </c>
-      <c r="S112" s="20"/>
-      <c r="T112" s="20"/>
-      <c r="U112" s="20"/>
-      <c r="V112" s="21"/>
+      <c r="S112" s="52"/>
+      <c r="T112" s="52"/>
+      <c r="U112" s="52"/>
+      <c r="V112" s="53"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16">
@@ -6751,35 +6838,35 @@
       <c r="C113" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="D113" s="19">
+      <c r="D113" s="51">
         <v>7.5</v>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="19">
+      <c r="E113" s="52"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="51">
         <v>80.2</v>
       </c>
-      <c r="H113" s="21"/>
-      <c r="I113" s="19">
+      <c r="H113" s="53"/>
+      <c r="I113" s="51">
         <v>9.1</v>
       </c>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="19">
+      <c r="J113" s="52"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="51">
         <v>24.1</v>
       </c>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="21"/>
-      <c r="R113" s="19">
+      <c r="O113" s="52"/>
+      <c r="P113" s="52"/>
+      <c r="Q113" s="53"/>
+      <c r="R113" s="51">
         <v>19.3</v>
       </c>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="21"/>
+      <c r="S113" s="52"/>
+      <c r="T113" s="52"/>
+      <c r="U113" s="52"/>
+      <c r="V113" s="53"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16">
@@ -6791,35 +6878,35 @@
       <c r="C114" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D114" s="51">
         <v>6.4</v>
       </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="19">
+      <c r="E114" s="52"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="51">
         <v>76</v>
       </c>
-      <c r="H114" s="21"/>
-      <c r="I114" s="19">
+      <c r="H114" s="53"/>
+      <c r="I114" s="51">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="19">
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="51">
         <v>26.3</v>
       </c>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="19">
+      <c r="O114" s="52"/>
+      <c r="P114" s="52"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="51">
         <v>20</v>
       </c>
-      <c r="S114" s="20"/>
-      <c r="T114" s="20"/>
-      <c r="U114" s="20"/>
-      <c r="V114" s="21"/>
+      <c r="S114" s="52"/>
+      <c r="T114" s="52"/>
+      <c r="U114" s="52"/>
+      <c r="V114" s="53"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16">
@@ -6831,35 +6918,35 @@
       <c r="C115" s="4">
         <v>20.6</v>
       </c>
-      <c r="D115" s="19">
+      <c r="D115" s="51">
         <v>6.5</v>
       </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="19">
+      <c r="E115" s="52"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="51">
         <v>85.6</v>
       </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="19">
+      <c r="H115" s="53"/>
+      <c r="I115" s="51">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="19">
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="51">
         <v>22.4</v>
       </c>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="19">
+      <c r="O115" s="52"/>
+      <c r="P115" s="52"/>
+      <c r="Q115" s="53"/>
+      <c r="R115" s="51">
         <v>19.100000000000001</v>
       </c>
-      <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="21"/>
+      <c r="S115" s="52"/>
+      <c r="T115" s="52"/>
+      <c r="U115" s="52"/>
+      <c r="V115" s="53"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16">
@@ -6871,35 +6958,35 @@
       <c r="C116" s="4">
         <v>21.2</v>
       </c>
-      <c r="D116" s="19">
+      <c r="D116" s="51">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E116" s="20"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="19">
+      <c r="E116" s="52"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="51">
         <v>100.6</v>
       </c>
-      <c r="H116" s="21"/>
-      <c r="I116" s="19">
+      <c r="H116" s="53"/>
+      <c r="I116" s="51">
         <v>9</v>
       </c>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="19">
+      <c r="J116" s="52"/>
+      <c r="K116" s="52"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="53"/>
+      <c r="N116" s="51">
         <v>17.5</v>
       </c>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="19">
+      <c r="O116" s="52"/>
+      <c r="P116" s="52"/>
+      <c r="Q116" s="53"/>
+      <c r="R116" s="51">
         <v>17.600000000000001</v>
       </c>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
-      <c r="V116" s="21"/>
+      <c r="S116" s="52"/>
+      <c r="T116" s="52"/>
+      <c r="U116" s="52"/>
+      <c r="V116" s="53"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
@@ -6911,35 +6998,35 @@
       <c r="C117" s="4">
         <v>20.3</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D117" s="51">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="19">
+      <c r="E117" s="52"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="51">
         <v>106.2</v>
       </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="19">
+      <c r="H117" s="53"/>
+      <c r="I117" s="51">
         <v>8.9</v>
       </c>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="19">
+      <c r="J117" s="52"/>
+      <c r="K117" s="52"/>
+      <c r="L117" s="52"/>
+      <c r="M117" s="53"/>
+      <c r="N117" s="51">
         <v>16.8</v>
       </c>
-      <c r="O117" s="20"/>
-      <c r="P117" s="20"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="19">
+      <c r="O117" s="52"/>
+      <c r="P117" s="52"/>
+      <c r="Q117" s="53"/>
+      <c r="R117" s="51">
         <v>17.8</v>
       </c>
-      <c r="S117" s="20"/>
-      <c r="T117" s="20"/>
-      <c r="U117" s="20"/>
-      <c r="V117" s="21"/>
+      <c r="S117" s="52"/>
+      <c r="T117" s="52"/>
+      <c r="U117" s="52"/>
+      <c r="V117" s="53"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="17" t="s">
@@ -6951,35 +7038,35 @@
       <c r="C118" s="4">
         <v>20.3</v>
       </c>
-      <c r="D118" s="19">
+      <c r="D118" s="51">
         <v>4.7</v>
       </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="19">
+      <c r="E118" s="52"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="51">
         <v>105.3</v>
       </c>
-      <c r="H118" s="21"/>
-      <c r="I118" s="19">
+      <c r="H118" s="53"/>
+      <c r="I118" s="51">
         <v>8.5</v>
       </c>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="19">
+      <c r="J118" s="52"/>
+      <c r="K118" s="52"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="53"/>
+      <c r="N118" s="51">
         <v>16.5</v>
       </c>
-      <c r="O118" s="20"/>
-      <c r="P118" s="20"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="19">
+      <c r="O118" s="52"/>
+      <c r="P118" s="52"/>
+      <c r="Q118" s="53"/>
+      <c r="R118" s="51">
         <v>17.399999999999999</v>
       </c>
-      <c r="S118" s="20"/>
-      <c r="T118" s="20"/>
-      <c r="U118" s="20"/>
-      <c r="V118" s="21"/>
+      <c r="S118" s="52"/>
+      <c r="T118" s="52"/>
+      <c r="U118" s="52"/>
+      <c r="V118" s="53"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="17" t="s">
@@ -6991,88 +7078,514 @@
       <c r="C119" s="4">
         <v>20</v>
       </c>
-      <c r="D119" s="19">
+      <c r="D119" s="51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="19">
+      <c r="E119" s="52"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="51">
         <v>103</v>
       </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="19">
+      <c r="H119" s="53"/>
+      <c r="I119" s="51">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="19">
+      <c r="J119" s="52"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="53"/>
+      <c r="N119" s="51">
         <v>18.100000000000001</v>
       </c>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="19">
+      <c r="O119" s="52"/>
+      <c r="P119" s="52"/>
+      <c r="Q119" s="53"/>
+      <c r="R119" s="51">
         <v>18.600000000000001</v>
       </c>
-      <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
-      <c r="U119" s="20"/>
-      <c r="V119" s="21"/>
+      <c r="S119" s="52"/>
+      <c r="T119" s="52"/>
+      <c r="U119" s="52"/>
+      <c r="V119" s="53"/>
     </row>
     <row r="120" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="127"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="127"/>
+      <c r="G120" s="127"/>
+      <c r="H120" s="127"/>
+      <c r="I120" s="127"/>
+      <c r="J120" s="127"/>
+      <c r="K120" s="127"/>
+      <c r="L120" s="127"/>
+      <c r="M120" s="127"/>
+      <c r="N120" s="127"/>
+      <c r="O120" s="127"/>
+      <c r="P120" s="127"/>
+      <c r="Q120" s="127"/>
+      <c r="R120" s="127"/>
+      <c r="S120" s="127"/>
+      <c r="T120" s="127"/>
+      <c r="U120" s="127"/>
+      <c r="V120" s="127"/>
+      <c r="W120" s="127"/>
+      <c r="X120" s="127"/>
+      <c r="Y120" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="482">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
-    <mergeCell ref="A11:AD11"/>
-    <mergeCell ref="A12:D14"/>
-    <mergeCell ref="E12:Z12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="A120:Y120"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:V119"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="R116:V116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:V117"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:V114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="R115:V115"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="N112:Q112"/>
+    <mergeCell ref="R112:V112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:V113"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="R110:V110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="N111:Q111"/>
+    <mergeCell ref="R111:V111"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:V108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:V109"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="R106:V106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="R107:V107"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:V104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="R102:V102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:V103"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:V100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="R101:V101"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="R98:V98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="R99:V99"/>
+    <mergeCell ref="A94:Y94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:V95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="R97:V97"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="A93:U93"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="A81:Y81"/>
+    <mergeCell ref="A82:E83"/>
+    <mergeCell ref="F82:U82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:T76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="Q69:T69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="Q71:T71"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="Q68:T68"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:Y63"/>
+    <mergeCell ref="A64:J65"/>
+    <mergeCell ref="K64:T64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="M60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="M57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A32:L33"/>
+    <mergeCell ref="M32:AC32"/>
+    <mergeCell ref="M33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Z18"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="I15:K15"/>
@@ -7087,453 +7600,27 @@
     <mergeCell ref="P16:S16"/>
     <mergeCell ref="T16:W16"/>
     <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="A30:AD30"/>
-    <mergeCell ref="A31:AD31"/>
-    <mergeCell ref="A32:L33"/>
-    <mergeCell ref="M32:AC32"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="M60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:Y63"/>
-    <mergeCell ref="A64:J65"/>
-    <mergeCell ref="K64:T64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="Q68:T68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="Q69:T69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="Q71:T71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="Q78:T78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="A81:Y81"/>
-    <mergeCell ref="A82:E83"/>
-    <mergeCell ref="F82:U82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="A93:U93"/>
-    <mergeCell ref="A94:Y94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:V95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="R97:V97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="R98:V98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="R99:V99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:V100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="R101:V101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="R102:V102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:V103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:V104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:M105"/>
-    <mergeCell ref="N105:Q105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="R106:V106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="R107:V107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:V108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="R109:V109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="N110:Q110"/>
-    <mergeCell ref="R110:V110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:M111"/>
-    <mergeCell ref="N111:Q111"/>
-    <mergeCell ref="R111:V111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:M112"/>
-    <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="R112:V112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:V113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:V114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="R115:V115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="R116:V116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:V117"/>
-    <mergeCell ref="A120:Y120"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="R119:V119"/>
+    <mergeCell ref="A11:AD11"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="E12:Z12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.dea.gov.in/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7544,108 +7631,444 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFA280-AE68-E549-BE7F-83A817DF3F45}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C2">
+        <v>71.3</v>
+      </c>
+      <c r="D2">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3">
+        <v>30.5</v>
+      </c>
+      <c r="C3">
+        <v>30.9</v>
+      </c>
+      <c r="D3">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>5.7</v>
+      </c>
+      <c r="C4">
+        <v>23.3</v>
+      </c>
+      <c r="D4">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>5.6</v>
+      </c>
+      <c r="D5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6">
+        <v>212.5</v>
+      </c>
+      <c r="C6">
+        <v>224.9</v>
+      </c>
+      <c r="D6">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>140.5</v>
+      </c>
+      <c r="C7">
+        <v>141.6</v>
+      </c>
+      <c r="D7">
+        <v>141.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9">
+        <v>103.5</v>
+      </c>
+      <c r="C9">
+        <v>104.8</v>
+      </c>
+      <c r="D9">
+        <v>114.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC1B13B-1B6B-5C4A-933C-BC71B1A34769}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="63.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>82.2</v>
+      </c>
+      <c r="D2">
+        <v>85.7</v>
+      </c>
+      <c r="E2">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>28.7</v>
+      </c>
+      <c r="D3">
+        <v>46.3</v>
+      </c>
+      <c r="E3">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>159.4</v>
+      </c>
+      <c r="D5">
+        <v>160.1</v>
+      </c>
+      <c r="E5">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>46.7</v>
+      </c>
+      <c r="D6">
+        <v>52.3</v>
+      </c>
+      <c r="E6">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>225.5</v>
+      </c>
+      <c r="D7">
+        <v>232.8</v>
+      </c>
+      <c r="E7">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>25.7</v>
+      </c>
+      <c r="D9">
+        <v>26.1</v>
+      </c>
+      <c r="E9">
+        <v>26.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF4A796-A2B0-B243-B427-BF28FAB7BDE2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>107</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2">
         <v>5.7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>23.3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>112</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3">
         <v>142.5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>142.9</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>143.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>113</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
         <v>99.6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>105.6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>104.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
         <v>192.2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>201.1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6">
         <v>102.6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>104.4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>113.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>116</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>134</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7653,18 +8076,24 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8">
         <v>25.7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>26.1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>26.4</v>
       </c>
     </row>

--- a/data/India-External Debt.xlsx
+++ b/data/India-External Debt.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{8EDBAAC2-A936-A846-BBD2-7111B010D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB71E0A-FBE9-C547-9DEF-CA8F1DADAC9A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -2054,6 +2054,321 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,321 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="24"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2830,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="AB65" sqref="AB65"/>
     </sheetView>
   </sheetViews>
@@ -2867,1130 +2867,1130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
     </row>
     <row r="2" spans="1:30" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
     </row>
     <row r="3" spans="1:30" ht="125.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
     </row>
     <row r="4" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
     </row>
     <row r="5" spans="1:30" ht="60.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
     </row>
     <row r="6" spans="1:30" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
     </row>
     <row r="7" spans="1:30" ht="154" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
     </row>
     <row r="8" spans="1:30" ht="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
     </row>
     <row r="9" spans="1:30" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
     </row>
     <row r="10" spans="1:30" ht="294" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
     </row>
     <row r="11" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="117"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="35"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="60"/>
     </row>
     <row r="13" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="36" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="39" t="s">
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="41"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="96"/>
     </row>
     <row r="14" spans="1:30" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="39" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42" t="s">
+      <c r="J14" s="97"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="42" t="s">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="42" t="s">
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="42" t="s">
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="44"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="36"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45">
+      <c r="A15" s="61">
         <v>1</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="45">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="61">
         <v>2</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="61">
         <v>4</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="45">
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61">
         <v>5</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="45">
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="61">
         <v>6</v>
       </c>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="45">
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="61">
         <v>7</v>
       </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="45">
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="61">
         <v>8</v>
       </c>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="47"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="63"/>
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="20">
         <v>68.099999999999994</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4">
         <v>71.3</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="20">
         <v>71.5</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="51">
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20">
         <v>3.5</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="51">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="20">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="51">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="51">
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="20">
         <v>0.3</v>
       </c>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="53"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="20">
         <v>30.5</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4">
         <v>30.9</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="20">
         <v>30.7</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="51">
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="20">
         <v>0.2</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="51">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="20">
         <v>-0.2</v>
       </c>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="51">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="20">
         <v>0.5</v>
       </c>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="51">
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="20">
         <v>-0.7</v>
       </c>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="20">
         <v>5.7</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4">
         <v>23.3</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="20">
         <v>23.2</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="51">
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="20">
         <v>17.399999999999999</v>
       </c>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="51">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="20">
         <v>-0.2</v>
       </c>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="51">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="20">
         <v>304.2</v>
       </c>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="51">
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="20">
         <v>-0.7</v>
       </c>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="53"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="20">
         <v>6.5</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="4">
         <v>5.6</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="20">
         <v>5.6</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="51">
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="20">
         <v>-0.9</v>
       </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="51">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="20">
         <v>0</v>
       </c>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="51">
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="20">
         <v>-13.8</v>
       </c>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="51">
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="20">
         <v>-0.8</v>
       </c>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="53"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="20">
         <v>212.5</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="4">
         <v>224.9</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="20">
         <v>226.4</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="51">
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="20">
         <v>14</v>
       </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="51">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="20">
         <v>1.5</v>
       </c>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="51">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="20">
         <v>6.6</v>
       </c>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="51">
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="20">
         <v>0.7</v>
       </c>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="53"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="20">
         <v>140.5</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="4">
         <v>141.6</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="20">
         <v>141.9</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="51">
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="20">
         <v>1.4</v>
       </c>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="51">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="20">
         <v>0.4</v>
       </c>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="51">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="20">
         <v>1</v>
       </c>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="51">
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="20">
         <v>0.2</v>
       </c>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="53"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="20">
         <v>1</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="51">
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="20">
         <v>0</v>
       </c>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="51">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="20">
         <v>0</v>
       </c>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="51">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="20">
         <v>-3</v>
       </c>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="51">
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="20">
         <v>1.6</v>
       </c>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="53"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="20">
         <v>103.5</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="4">
         <v>104.8</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="20">
         <v>114.6</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="51">
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="20">
         <v>11.1</v>
       </c>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="51">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="20">
         <v>9.9</v>
       </c>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="51">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="20">
         <v>10.7</v>
       </c>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="51">
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="20">
         <v>9.4</v>
       </c>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="53"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="106"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="59"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="106"/>
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="51">
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="20">
         <v>99.6</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="4">
         <v>101.6</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="20">
         <v>110.5</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="51">
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="20">
         <v>10.9</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="51">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="20">
         <v>9</v>
       </c>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="51">
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="20">
         <v>11</v>
       </c>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="51">
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="53"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47">
         <v>568.29999999999995</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="6">
         <v>603.4</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="47">
         <v>614.9</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="66">
+      <c r="J26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="47">
         <v>46.6</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="66">
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="47">
         <v>11.5</v>
       </c>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="66">
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="47">
         <v>8.1999999999999993</v>
       </c>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="66">
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="47">
         <v>1.9</v>
       </c>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="68"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="49"/>
     </row>
     <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="59"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="106"/>
     </row>
     <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="51">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="20">
         <v>464.8</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="4">
         <v>498.6</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="20">
         <v>500.3</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="51">
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="20">
         <v>35.5</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="51">
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="20">
         <v>1.7</v>
       </c>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="51">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="20">
         <v>7.6</v>
       </c>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="51">
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="20">
         <v>0.3</v>
       </c>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="53"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="51">
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="20">
         <v>103.5</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="4">
         <v>104.8</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="20">
         <v>114.6</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="51">
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="20">
         <v>11.1</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="51">
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="20">
         <v>9.9</v>
       </c>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="51">
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="20">
         <v>10.7</v>
       </c>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="51">
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="20">
         <v>9.4</v>
       </c>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:30" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
+      <c r="AB30" s="116"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
     </row>
     <row r="31" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="117"/>
+      <c r="R31" s="117"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="117"/>
+      <c r="W31" s="117"/>
+      <c r="X31" s="117"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="117"/>
+      <c r="AD31" s="117"/>
     </row>
     <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="33" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="35"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="60"/>
     </row>
     <row r="33" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="39" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="36" t="s">
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="39" t="s">
+      <c r="W33" s="114"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="41"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="96"/>
       <c r="AB33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3999,41 +3999,41 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="45">
+      <c r="A34" s="61">
         <v>1</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="45">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="61">
         <v>2</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="45">
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="61">
         <v>3</v>
       </c>
-      <c r="W34" s="46"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="45">
+      <c r="W34" s="62"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="61">
         <v>4</v>
       </c>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="47"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="63"/>
       <c r="AB34" s="3">
         <v>5</v>
       </c>
@@ -4042,41 +4042,41 @@
       </c>
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47">
         <v>7.6</v>
       </c>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="67"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="66">
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="47">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W35" s="67"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="66">
+      <c r="W35" s="48"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="47">
         <v>8.9</v>
       </c>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="68"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="6">
         <v>106.5</v>
       </c>
@@ -4085,78 +4085,78 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="51">
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="20">
         <v>0.9</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="59"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="105"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="106"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="51">
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="20">
         <v>6.7</v>
       </c>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="51">
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W37" s="52"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="51">
+      <c r="W37" s="21"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="20">
         <v>8.9</v>
       </c>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="53"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="22"/>
       <c r="AB37" s="4">
         <v>106.5</v>
       </c>
@@ -4165,41 +4165,41 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="66">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47">
         <v>0.1</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="66">
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="47">
         <v>0</v>
       </c>
-      <c r="W38" s="67"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="66">
+      <c r="W38" s="48"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="47">
         <v>0</v>
       </c>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="68"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
       <c r="AB38" s="6">
         <v>0</v>
       </c>
@@ -4208,78 +4208,78 @@
       </c>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="51">
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="20">
         <v>0.1</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="57"/>
-      <c r="Z39" s="58"/>
-      <c r="AA39" s="59"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="106"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="51">
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="20">
         <v>0</v>
       </c>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="51">
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="20">
         <v>0</v>
       </c>
-      <c r="W40" s="52"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="51">
+      <c r="W40" s="21"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="20">
         <v>0</v>
       </c>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="53"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="22"/>
       <c r="AB40" s="4">
         <v>0</v>
       </c>
@@ -4288,41 +4288,41 @@
       </c>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="66">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47">
         <v>105.8</v>
       </c>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="66">
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="47">
         <v>19.600000000000001</v>
       </c>
-      <c r="W41" s="67"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="66">
+      <c r="W41" s="48"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="47">
         <v>10.1</v>
       </c>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="68"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="49"/>
       <c r="AB41" s="6">
         <v>26.7</v>
       </c>
@@ -4331,78 +4331,78 @@
       </c>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="51">
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="20">
         <v>1.5</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="57"/>
-      <c r="Z42" s="58"/>
-      <c r="AA42" s="59"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="105"/>
+      <c r="AA42" s="106"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="51">
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="20">
         <v>104.3</v>
       </c>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="51">
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="20">
         <v>19.600000000000001</v>
       </c>
-      <c r="W43" s="52"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="51">
+      <c r="W43" s="21"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="20">
         <v>10.1</v>
       </c>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="53"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="22"/>
       <c r="AB43" s="4">
         <v>26.7</v>
       </c>
@@ -4411,41 +4411,41 @@
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="66">
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47">
         <v>153.30000000000001</v>
       </c>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="66">
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="47">
         <v>26.2</v>
       </c>
-      <c r="W44" s="67"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="66">
+      <c r="W44" s="48"/>
+      <c r="X44" s="49"/>
+      <c r="Y44" s="47">
         <v>28.1</v>
       </c>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="68"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="49"/>
       <c r="AB44" s="6">
         <v>87.3</v>
       </c>
@@ -4454,78 +4454,78 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="51">
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="20">
         <v>112.1</v>
       </c>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="59"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="105"/>
+      <c r="AA45" s="106"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="4">
         <v>112.1</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="51">
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="20">
         <v>41.2</v>
       </c>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="51">
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="20">
         <v>26.2</v>
       </c>
-      <c r="W46" s="52"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="51">
+      <c r="W46" s="21"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="20">
         <v>28.1</v>
       </c>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="53"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="22"/>
       <c r="AB46" s="4">
         <v>87.3</v>
       </c>
@@ -4534,41 +4534,41 @@
       </c>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="66">
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="109"/>
+      <c r="M47" s="47">
         <v>11.6</v>
       </c>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="66">
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="47">
         <v>10.9</v>
       </c>
-      <c r="W47" s="67"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="66">
+      <c r="W47" s="48"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="47">
         <v>7.9</v>
       </c>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="68"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="49"/>
       <c r="AB47" s="6">
         <v>21.9</v>
       </c>
@@ -4577,78 +4577,78 @@
       </c>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="51">
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="20">
         <v>1.6</v>
       </c>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="58"/>
-      <c r="AA48" s="59"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="106"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="4">
         <v>1.6</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="51">
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="20">
         <v>10.1</v>
       </c>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="51">
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="20">
         <v>10.9</v>
       </c>
-      <c r="W49" s="52"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="51">
+      <c r="W49" s="21"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="20">
         <v>7.9</v>
       </c>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="53"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="22"/>
       <c r="AB49" s="4">
         <v>21.9</v>
       </c>
@@ -4657,41 +4657,41 @@
       </c>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="66">
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="109"/>
+      <c r="M50" s="47">
         <v>141.69999999999999</v>
       </c>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="66">
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="47">
         <v>15.3</v>
       </c>
-      <c r="W50" s="67"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="66">
+      <c r="W50" s="48"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="47">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="68"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="49"/>
       <c r="AB50" s="6">
         <v>65.400000000000006</v>
       </c>
@@ -4700,78 +4700,78 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="51">
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="20">
         <v>110.5</v>
       </c>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="59"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="104"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="104"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="106"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="4">
         <v>110.5</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="51">
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="20">
         <v>31.2</v>
       </c>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="51">
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="20">
         <v>15.3</v>
       </c>
-      <c r="W52" s="52"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="51">
+      <c r="W52" s="21"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="20">
         <v>20.100000000000001</v>
       </c>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="53"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="22"/>
       <c r="AB52" s="4">
         <v>65.400000000000006</v>
       </c>
@@ -4780,41 +4780,41 @@
       </c>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="66">
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="109"/>
+      <c r="M53" s="47">
         <v>0</v>
       </c>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="66">
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="49"/>
+      <c r="V53" s="47">
         <v>0</v>
       </c>
-      <c r="W53" s="67"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="66">
+      <c r="W53" s="48"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="47">
         <v>0</v>
       </c>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="68"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="49"/>
       <c r="AB53" s="6">
         <v>0</v>
       </c>
@@ -4823,78 +4823,78 @@
       </c>
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="51">
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="20">
         <v>0</v>
       </c>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="57"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="59"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="105"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="105"/>
+      <c r="AA54" s="106"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="51">
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="20">
         <v>0</v>
       </c>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="51">
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="20">
         <v>0</v>
       </c>
-      <c r="W55" s="52"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="51">
+      <c r="W55" s="21"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="20">
         <v>0</v>
       </c>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="53"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="22"/>
       <c r="AB55" s="4">
         <v>0</v>
       </c>
@@ -4903,41 +4903,41 @@
       </c>
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="63" t="s">
+      <c r="A56" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="66">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47">
         <v>6</v>
       </c>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="66">
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="47">
         <v>3</v>
       </c>
-      <c r="W56" s="67"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="66">
+      <c r="W56" s="48"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="47">
         <v>3.4</v>
       </c>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="68"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="49"/>
       <c r="AB56" s="6">
         <v>14</v>
       </c>
@@ -4946,78 +4946,78 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="51">
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="20">
         <v>114.6</v>
       </c>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="58"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="57"/>
-      <c r="Z57" s="58"/>
-      <c r="AA57" s="59"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="105"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="105"/>
+      <c r="AA57" s="106"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="4">
         <v>114.6</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="51">
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="20">
         <v>158.19999999999999</v>
       </c>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="51">
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="20">
         <v>57.1</v>
       </c>
-      <c r="W58" s="52"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="51">
+      <c r="W58" s="21"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="20">
         <v>50.4</v>
       </c>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="53"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="22"/>
       <c r="AB58" s="4">
         <v>234.6</v>
       </c>
@@ -5026,41 +5026,41 @@
       </c>
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="66">
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47">
         <v>272.8</v>
       </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="66">
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="47">
         <v>57.1</v>
       </c>
-      <c r="W59" s="67"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="66">
+      <c r="W59" s="48"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="47">
         <v>50.4</v>
       </c>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="68"/>
+      <c r="Z59" s="48"/>
+      <c r="AA59" s="49"/>
       <c r="AB59" s="6">
         <v>234.6</v>
       </c>
@@ -5069,150 +5069,150 @@
       </c>
     </row>
     <row r="60" spans="1:29" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84"/>
-      <c r="W60" s="84"/>
-      <c r="X60" s="84"/>
-      <c r="Y60" s="84"/>
-      <c r="Z60" s="84"/>
-      <c r="AA60" s="84"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="100"/>
+      <c r="Q60" s="100"/>
+      <c r="R60" s="100"/>
+      <c r="S60" s="100"/>
+      <c r="T60" s="100"/>
+      <c r="U60" s="100"/>
+      <c r="V60" s="100"/>
+      <c r="W60" s="100"/>
+      <c r="X60" s="100"/>
+      <c r="Y60" s="100"/>
+      <c r="Z60" s="100"/>
+      <c r="AA60" s="100"/>
       <c r="AB60" s="8"/>
       <c r="AC60" s="9"/>
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="87"/>
-      <c r="R61" s="87"/>
-      <c r="S61" s="87"/>
-      <c r="T61" s="87"/>
-      <c r="U61" s="87"/>
-      <c r="V61" s="87"/>
-      <c r="W61" s="87"/>
-      <c r="X61" s="87"/>
-      <c r="Y61" s="87"/>
-      <c r="Z61" s="87"/>
-      <c r="AA61" s="87"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="103"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="103"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="103"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="103"/>
+      <c r="Z61" s="103"/>
+      <c r="AA61" s="103"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="11">
         <v>44.4</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="90"/>
-      <c r="U62" s="90"/>
-      <c r="V62" s="90"/>
-      <c r="W62" s="90"/>
-      <c r="X62" s="90"/>
-      <c r="Y62" s="90"/>
-      <c r="Z62" s="90"/>
-      <c r="AA62" s="90"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="84"/>
+      <c r="O62" s="84"/>
+      <c r="P62" s="84"/>
+      <c r="Q62" s="84"/>
+      <c r="R62" s="84"/>
+      <c r="S62" s="84"/>
+      <c r="T62" s="84"/>
+      <c r="U62" s="84"/>
+      <c r="V62" s="84"/>
+      <c r="W62" s="84"/>
+      <c r="X62" s="84"/>
+      <c r="Y62" s="84"/>
+      <c r="Z62" s="84"/>
+      <c r="AA62" s="84"/>
       <c r="AB62" s="12"/>
       <c r="AC62" s="13">
         <v>43.1</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="91"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="91"/>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="91"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="91"/>
-      <c r="U63" s="91"/>
-      <c r="V63" s="91"/>
-      <c r="W63" s="91"/>
-      <c r="X63" s="91"/>
-      <c r="Y63" s="91"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
+      <c r="M63" s="85"/>
+      <c r="N63" s="85"/>
+      <c r="O63" s="85"/>
+      <c r="P63" s="85"/>
+      <c r="Q63" s="85"/>
+      <c r="R63" s="85"/>
+      <c r="S63" s="85"/>
+      <c r="T63" s="85"/>
+      <c r="U63" s="85"/>
+      <c r="V63" s="85"/>
+      <c r="W63" s="85"/>
+      <c r="X63" s="85"/>
+      <c r="Y63" s="85"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
+      <c r="H64" s="87"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="88"/>
       <c r="K64" s="92" t="s">
         <v>9</v>
       </c>
@@ -5227,966 +5227,966 @@
       <c r="T64" s="94"/>
     </row>
     <row r="65" spans="1:20" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="39" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="41"/>
-      <c r="M65" s="39" t="s">
+      <c r="L65" s="96"/>
+      <c r="M65" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="39" t="s">
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="41"/>
+      <c r="R65" s="97"/>
+      <c r="S65" s="97"/>
+      <c r="T65" s="96"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="45">
+      <c r="A66" s="61">
         <v>1</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="45">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="61">
         <v>2</v>
       </c>
-      <c r="L66" s="47"/>
-      <c r="M66" s="45">
+      <c r="L66" s="63"/>
+      <c r="M66" s="61">
         <v>3</v>
       </c>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="45">
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="61">
         <v>4</v>
       </c>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="47"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="63"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="63" t="s">
+      <c r="A67" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="51">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="20">
         <v>110.9</v>
       </c>
-      <c r="L67" s="53"/>
-      <c r="M67" s="51">
+      <c r="L67" s="22"/>
+      <c r="M67" s="20">
         <v>132</v>
       </c>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="51">
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="20">
         <v>131.4</v>
       </c>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="53"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="22"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="51">
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="20">
         <v>4.2</v>
       </c>
-      <c r="L68" s="53"/>
-      <c r="M68" s="51">
+      <c r="L68" s="22"/>
+      <c r="M68" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="51">
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="20">
         <v>4.3</v>
       </c>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="53"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="22"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="51">
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="20">
         <v>82.2</v>
       </c>
-      <c r="L69" s="53"/>
-      <c r="M69" s="51">
+      <c r="L69" s="22"/>
+      <c r="M69" s="20">
         <v>85.7</v>
       </c>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="51">
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="20">
         <v>85.9</v>
       </c>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="53"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="22"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="51">
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="20">
         <v>28.7</v>
       </c>
-      <c r="L70" s="53"/>
-      <c r="M70" s="51">
+      <c r="L70" s="22"/>
+      <c r="M70" s="20">
         <v>46.3</v>
       </c>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="51">
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="20">
         <v>45.4</v>
       </c>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="53"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="22"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="51">
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="20">
         <v>457.4</v>
       </c>
-      <c r="L71" s="53"/>
-      <c r="M71" s="51">
+      <c r="L71" s="22"/>
+      <c r="M71" s="20">
         <v>471.4</v>
       </c>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="51">
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="20">
         <v>483.6</v>
       </c>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="53"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="22"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="51">
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="20">
         <v>17.5</v>
       </c>
-      <c r="L72" s="53"/>
-      <c r="M72" s="51">
+      <c r="L72" s="22"/>
+      <c r="M72" s="20">
         <v>15.9</v>
       </c>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="51">
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="20">
         <v>15.7</v>
       </c>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="53"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="22"/>
     </row>
     <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="51">
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="20">
         <v>0.2</v>
       </c>
-      <c r="L73" s="53"/>
-      <c r="M73" s="51">
+      <c r="L73" s="22"/>
+      <c r="M73" s="20">
         <v>0.1</v>
       </c>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="51">
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="20">
         <v>0.1</v>
       </c>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="53"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="22"/>
     </row>
     <row r="74" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="51">
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="20">
         <v>159.4</v>
       </c>
-      <c r="L74" s="53"/>
-      <c r="M74" s="51">
+      <c r="L74" s="22"/>
+      <c r="M74" s="20">
         <v>160.1</v>
       </c>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="53"/>
-      <c r="Q74" s="51">
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="20">
         <v>162.19999999999999</v>
       </c>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="53"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="22"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="51">
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="20">
         <v>46.7</v>
       </c>
-      <c r="L75" s="53"/>
-      <c r="M75" s="51">
+      <c r="L75" s="22"/>
+      <c r="M75" s="20">
         <v>52.3</v>
       </c>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="51">
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="20">
         <v>52.4</v>
       </c>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="53"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="22"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="51">
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="20">
         <v>225.5</v>
       </c>
-      <c r="L76" s="53"/>
-      <c r="M76" s="51">
+      <c r="L76" s="22"/>
+      <c r="M76" s="20">
         <v>232.8</v>
       </c>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="51">
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="20">
         <v>242.5</v>
       </c>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="53"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="22"/>
     </row>
     <row r="77" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="100"/>
-      <c r="K77" s="101">
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="76">
         <v>0</v>
       </c>
-      <c r="L77" s="102"/>
-      <c r="M77" s="101">
+      <c r="L77" s="77"/>
+      <c r="M77" s="76">
         <v>0</v>
       </c>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
-      <c r="P77" s="102"/>
-      <c r="Q77" s="101">
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="76">
         <v>0</v>
       </c>
-      <c r="R77" s="103"/>
-      <c r="S77" s="103"/>
-      <c r="T77" s="102"/>
+      <c r="R77" s="78"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="77"/>
     </row>
     <row r="78" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="81"/>
-      <c r="K78" s="51">
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="20">
         <v>25.7</v>
       </c>
-      <c r="L78" s="53"/>
-      <c r="M78" s="51">
+      <c r="L78" s="22"/>
+      <c r="M78" s="20">
         <v>26.1</v>
       </c>
-      <c r="N78" s="52"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="51">
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="20">
         <v>26.4</v>
       </c>
-      <c r="R78" s="52"/>
-      <c r="S78" s="52"/>
-      <c r="T78" s="53"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="22"/>
     </row>
     <row r="79" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="51">
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="20">
         <v>568.29999999999995</v>
       </c>
-      <c r="L79" s="53"/>
-      <c r="M79" s="51">
+      <c r="L79" s="22"/>
+      <c r="M79" s="20">
         <v>603.4</v>
       </c>
-      <c r="N79" s="52"/>
-      <c r="O79" s="52"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="51">
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="20">
         <v>614.9</v>
       </c>
-      <c r="R79" s="52"/>
-      <c r="S79" s="52"/>
-      <c r="T79" s="53"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="22"/>
     </row>
     <row r="80" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="55"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="51">
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="20">
         <v>21.7</v>
       </c>
-      <c r="L80" s="53"/>
-      <c r="M80" s="51">
+      <c r="L80" s="22"/>
+      <c r="M80" s="20">
         <v>20.3</v>
       </c>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="51">
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="20">
         <v>20</v>
       </c>
-      <c r="R80" s="52"/>
-      <c r="S80" s="52"/>
-      <c r="T80" s="53"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="22"/>
     </row>
     <row r="81" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="104"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="H81" s="104"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="104"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="104"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="104"/>
-      <c r="O81" s="104"/>
-      <c r="P81" s="104"/>
-      <c r="Q81" s="104"/>
-      <c r="R81" s="104"/>
-      <c r="S81" s="104"/>
-      <c r="T81" s="104"/>
-      <c r="U81" s="104"/>
-      <c r="V81" s="104"/>
-      <c r="W81" s="104"/>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="104"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="105" t="s">
+      <c r="A82" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="33" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="34"/>
-      <c r="O82" s="34"/>
-      <c r="P82" s="34"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="35"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="60"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="108"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="110"/>
-      <c r="F83" s="33" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="33" t="s">
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="35"/>
-      <c r="O83" s="33" t="s">
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="35"/>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="60"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="45">
+      <c r="A84" s="61">
         <v>1</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="45">
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="61">
         <v>2</v>
       </c>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="45">
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="61">
         <v>3</v>
       </c>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="45">
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="61">
         <v>4</v>
       </c>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="47"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
+      <c r="S84" s="62"/>
+      <c r="T84" s="62"/>
+      <c r="U84" s="63"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="48" t="s">
+      <c r="A85" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="51">
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="20">
         <v>5.7</v>
       </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="51">
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="20">
         <v>23.3</v>
       </c>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="51">
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="20">
         <v>23.2</v>
       </c>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="53"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="22"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="48" t="s">
+      <c r="A86" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51">
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="20">
         <v>142.5</v>
       </c>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="51">
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="20">
         <v>142.9</v>
       </c>
-      <c r="K86" s="52"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="51">
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="20">
         <v>143.5</v>
       </c>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="53"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="22"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51">
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="20">
         <v>99.6</v>
       </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="51">
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="20">
         <v>105.6</v>
       </c>
-      <c r="K87" s="52"/>
-      <c r="L87" s="52"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="51">
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="20">
         <v>104.4</v>
       </c>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="52"/>
-      <c r="R87" s="52"/>
-      <c r="S87" s="52"/>
-      <c r="T87" s="52"/>
-      <c r="U87" s="53"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="22"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51">
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="20">
         <v>192.2</v>
       </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="51">
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="20">
         <v>201.1</v>
       </c>
-      <c r="K88" s="52"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="51">
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="20">
         <v>204</v>
       </c>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="53"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="22"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="20">
         <v>102.6</v>
       </c>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="51">
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="20">
         <v>104.4</v>
       </c>
-      <c r="K89" s="52"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="51">
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="20">
         <v>113.5</v>
       </c>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
-      <c r="T89" s="52"/>
-      <c r="U89" s="53"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="22"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51">
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="20">
         <v>0</v>
       </c>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="51">
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="20">
         <v>0</v>
       </c>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="51">
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="20">
         <v>0</v>
       </c>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="53"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="22"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="51">
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="20">
         <v>25.7</v>
       </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="51">
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="20">
         <v>26.1</v>
       </c>
-      <c r="K91" s="52"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="53"/>
-      <c r="O91" s="51">
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="20">
         <v>26.4</v>
       </c>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="53"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="22"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="66">
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="47">
         <v>568.29999999999995</v>
       </c>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="66">
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="47">
         <v>603.4</v>
       </c>
-      <c r="K92" s="67"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="67"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="66">
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="47">
         <v>614.9</v>
       </c>
-      <c r="P92" s="67"/>
-      <c r="Q92" s="67"/>
-      <c r="R92" s="67"/>
-      <c r="S92" s="67"/>
-      <c r="T92" s="67"/>
-      <c r="U92" s="68"/>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="49"/>
     </row>
     <row r="93" spans="1:25" ht="17.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="111" t="s">
+      <c r="A93" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="111"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="111"/>
-      <c r="I93" s="111"/>
-      <c r="J93" s="111"/>
-      <c r="K93" s="111"/>
-      <c r="L93" s="111"/>
-      <c r="M93" s="111"/>
-      <c r="N93" s="111"/>
-      <c r="O93" s="111"/>
-      <c r="P93" s="111"/>
-      <c r="Q93" s="111"/>
-      <c r="R93" s="111"/>
-      <c r="S93" s="111"/>
-      <c r="T93" s="111"/>
-      <c r="U93" s="111"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
     </row>
     <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
-      <c r="G94" s="112"/>
-      <c r="H94" s="112"/>
-      <c r="I94" s="112"/>
-      <c r="J94" s="112"/>
-      <c r="K94" s="112"/>
-      <c r="L94" s="112"/>
-      <c r="M94" s="112"/>
-      <c r="N94" s="112"/>
-      <c r="O94" s="112"/>
-      <c r="P94" s="112"/>
-      <c r="Q94" s="112"/>
-      <c r="R94" s="112"/>
-      <c r="S94" s="112"/>
-      <c r="T94" s="112"/>
-      <c r="U94" s="112"/>
-      <c r="V94" s="112"/>
-      <c r="W94" s="112"/>
-      <c r="X94" s="112"/>
-      <c r="Y94" s="112"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="26"/>
+      <c r="R94" s="26"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="26"/>
+      <c r="U94" s="26"/>
+      <c r="V94" s="26"/>
+      <c r="W94" s="26"/>
+      <c r="X94" s="26"/>
+      <c r="Y94" s="26"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="115" t="s">
+      <c r="B95" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="116"/>
-      <c r="D95" s="116"/>
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="116"/>
-      <c r="H95" s="116"/>
-      <c r="I95" s="116"/>
-      <c r="J95" s="116"/>
-      <c r="K95" s="116"/>
-      <c r="L95" s="116"/>
-      <c r="M95" s="116"/>
-      <c r="N95" s="116"/>
-      <c r="O95" s="116"/>
-      <c r="P95" s="116"/>
-      <c r="Q95" s="116"/>
-      <c r="R95" s="116"/>
-      <c r="S95" s="116"/>
-      <c r="T95" s="116"/>
-      <c r="U95" s="116"/>
-      <c r="V95" s="117"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="31"/>
     </row>
     <row r="96" spans="1:25" ht="120.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="114"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="118" t="s">
+      <c r="D96" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="119"/>
-      <c r="F96" s="120"/>
-      <c r="G96" s="42" t="s">
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="H96" s="44"/>
-      <c r="I96" s="42" t="s">
+      <c r="H96" s="36"/>
+      <c r="I96" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="42" t="s">
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="42" t="s">
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="44"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="36"/>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
@@ -6198,35 +6198,35 @@
       <c r="C97" s="15">
         <v>3</v>
       </c>
-      <c r="D97" s="121">
+      <c r="D97" s="38">
         <v>4</v>
       </c>
-      <c r="E97" s="122"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="121">
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="38">
         <v>5</v>
       </c>
-      <c r="H97" s="123"/>
-      <c r="I97" s="121">
+      <c r="H97" s="40"/>
+      <c r="I97" s="38">
         <v>6</v>
       </c>
-      <c r="J97" s="122"/>
-      <c r="K97" s="122"/>
-      <c r="L97" s="122"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="121">
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="38">
         <v>7</v>
       </c>
-      <c r="O97" s="122"/>
-      <c r="P97" s="122"/>
-      <c r="Q97" s="123"/>
-      <c r="R97" s="121">
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="38">
         <v>8</v>
       </c>
-      <c r="S97" s="122"/>
-      <c r="T97" s="122"/>
-      <c r="U97" s="122"/>
-      <c r="V97" s="123"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="40"/>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="16">
@@ -6238,35 +6238,35 @@
       <c r="C98" s="4">
         <v>28.3</v>
       </c>
-      <c r="D98" s="51">
+      <c r="D98" s="20">
         <v>35.299999999999997</v>
       </c>
-      <c r="E98" s="52"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="51">
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="20">
         <v>7</v>
       </c>
-      <c r="H98" s="53"/>
-      <c r="I98" s="51">
+      <c r="H98" s="22"/>
+      <c r="I98" s="20">
         <v>45.9</v>
       </c>
-      <c r="J98" s="52"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="52"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="51">
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="20">
         <v>146.5</v>
       </c>
-      <c r="O98" s="52"/>
-      <c r="P98" s="52"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="51">
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="22"/>
+      <c r="R98" s="20">
         <v>10.199999999999999</v>
       </c>
-      <c r="S98" s="52"/>
-      <c r="T98" s="52"/>
-      <c r="U98" s="52"/>
-      <c r="V98" s="53"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="22"/>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="16">
@@ -6278,35 +6278,35 @@
       <c r="C99" s="4">
         <v>26.6</v>
       </c>
-      <c r="D99" s="51">
+      <c r="D99" s="20">
         <v>26.2</v>
       </c>
-      <c r="E99" s="52"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="51">
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="20">
         <v>23.1</v>
       </c>
-      <c r="H99" s="53"/>
-      <c r="I99" s="51">
+      <c r="H99" s="22"/>
+      <c r="I99" s="20">
         <v>44.7</v>
       </c>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="51">
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="20">
         <v>23.2</v>
       </c>
-      <c r="O99" s="52"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="51">
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="20">
         <v>5.4</v>
       </c>
-      <c r="S99" s="52"/>
-      <c r="T99" s="52"/>
-      <c r="U99" s="52"/>
-      <c r="V99" s="53"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="22"/>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="16">
@@ -6318,35 +6318,35 @@
       <c r="C100" s="4">
         <v>22.1</v>
       </c>
-      <c r="D100" s="51">
+      <c r="D100" s="20">
         <v>16.600000000000001</v>
       </c>
-      <c r="E100" s="52"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="51">
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="20">
         <v>41.7</v>
       </c>
-      <c r="H100" s="53"/>
-      <c r="I100" s="51">
+      <c r="H100" s="22"/>
+      <c r="I100" s="20">
         <v>35.4</v>
       </c>
-      <c r="J100" s="52"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="52"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="51">
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="20">
         <v>8.6</v>
       </c>
-      <c r="O100" s="52"/>
-      <c r="P100" s="52"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="51">
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="20">
         <v>3.6</v>
       </c>
-      <c r="S100" s="52"/>
-      <c r="T100" s="52"/>
-      <c r="U100" s="52"/>
-      <c r="V100" s="53"/>
+      <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="22"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="16">
@@ -6358,35 +6358,35 @@
       <c r="C101" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="D101" s="124" t="s">
+      <c r="D101" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="125"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="51">
+      <c r="E101" s="24"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="20">
         <v>109</v>
       </c>
-      <c r="H101" s="53"/>
-      <c r="I101" s="51">
+      <c r="H101" s="22"/>
+      <c r="I101" s="20">
         <v>28.4</v>
       </c>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="51">
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="20">
         <v>12.9</v>
       </c>
-      <c r="O101" s="52"/>
-      <c r="P101" s="52"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="51">
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="20">
         <v>14</v>
       </c>
-      <c r="S101" s="52"/>
-      <c r="T101" s="52"/>
-      <c r="U101" s="52"/>
-      <c r="V101" s="53"/>
+      <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="22"/>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16">
@@ -6398,35 +6398,35 @@
       <c r="C102" s="4">
         <v>17.7</v>
       </c>
-      <c r="D102" s="51">
+      <c r="D102" s="20">
         <v>4.7</v>
       </c>
-      <c r="E102" s="52"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="51">
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="20">
         <v>115.6</v>
       </c>
-      <c r="H102" s="53"/>
-      <c r="I102" s="51">
+      <c r="H102" s="22"/>
+      <c r="I102" s="20">
         <v>23</v>
       </c>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="51">
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="20">
         <v>14.1</v>
       </c>
-      <c r="O102" s="52"/>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="51">
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="20">
         <v>16.3</v>
       </c>
-      <c r="S102" s="52"/>
-      <c r="T102" s="52"/>
-      <c r="U102" s="52"/>
-      <c r="V102" s="53"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="22"/>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="16">
@@ -6438,35 +6438,35 @@
       <c r="C103" s="4">
         <v>18.3</v>
       </c>
-      <c r="D103" s="51">
+      <c r="D103" s="20">
         <v>4.8</v>
       </c>
-      <c r="E103" s="52"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="51">
+      <c r="E103" s="21"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="20">
         <v>138</v>
       </c>
-      <c r="H103" s="53"/>
-      <c r="I103" s="51">
+      <c r="H103" s="22"/>
+      <c r="I103" s="20">
         <v>19.7</v>
       </c>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="51">
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="20">
         <v>14.8</v>
       </c>
-      <c r="O103" s="52"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="51">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="20">
         <v>20.399999999999999</v>
       </c>
-      <c r="S103" s="52"/>
-      <c r="T103" s="52"/>
-      <c r="U103" s="52"/>
-      <c r="V103" s="53"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="22"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="16">
@@ -6478,35 +6478,35 @@
       <c r="C104" s="4">
         <v>20.7</v>
       </c>
-      <c r="D104" s="51">
+      <c r="D104" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E104" s="52"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="51">
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="20">
         <v>112.2</v>
       </c>
-      <c r="H104" s="53"/>
-      <c r="I104" s="51">
+      <c r="H104" s="22"/>
+      <c r="I104" s="20">
         <v>18.7</v>
       </c>
-      <c r="J104" s="52"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="51">
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="20">
         <v>17.2</v>
       </c>
-      <c r="O104" s="52"/>
-      <c r="P104" s="52"/>
-      <c r="Q104" s="53"/>
-      <c r="R104" s="51">
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="20">
         <v>19.3</v>
       </c>
-      <c r="S104" s="52"/>
-      <c r="T104" s="52"/>
-      <c r="U104" s="52"/>
-      <c r="V104" s="53"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="22"/>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="16">
@@ -6518,35 +6518,35 @@
       <c r="C105" s="4">
         <v>18.5</v>
       </c>
-      <c r="D105" s="51">
+      <c r="D105" s="20">
         <v>5.8</v>
       </c>
-      <c r="E105" s="52"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="51">
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="20">
         <v>106.9</v>
       </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="51">
+      <c r="H105" s="22"/>
+      <c r="I105" s="20">
         <v>16.8</v>
       </c>
-      <c r="J105" s="52"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="51">
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="20">
         <v>18.8</v>
       </c>
-      <c r="O105" s="52"/>
-      <c r="P105" s="52"/>
-      <c r="Q105" s="53"/>
-      <c r="R105" s="51">
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="20">
         <v>20.100000000000001</v>
       </c>
-      <c r="S105" s="52"/>
-      <c r="T105" s="52"/>
-      <c r="U105" s="52"/>
-      <c r="V105" s="53"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="22"/>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="16">
@@ -6558,35 +6558,35 @@
       <c r="C106" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="D106" s="51">
+      <c r="D106" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E106" s="52"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="51">
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="20">
         <v>95.9</v>
       </c>
-      <c r="H106" s="53"/>
-      <c r="I106" s="51">
+      <c r="H106" s="22"/>
+      <c r="I106" s="20">
         <v>14.9</v>
       </c>
-      <c r="J106" s="52"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="51">
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="20">
         <v>21.3</v>
       </c>
-      <c r="O106" s="52"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="53"/>
-      <c r="R106" s="51">
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="20">
         <v>20.399999999999999</v>
       </c>
-      <c r="S106" s="52"/>
-      <c r="T106" s="52"/>
-      <c r="U106" s="52"/>
-      <c r="V106" s="53"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="22"/>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="16">
@@ -6598,35 +6598,35 @@
       <c r="C107" s="4">
         <v>21.1</v>
       </c>
-      <c r="D107" s="51">
+      <c r="D107" s="20">
         <v>6</v>
       </c>
-      <c r="E107" s="52"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="51">
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="20">
         <v>81.599999999999994</v>
       </c>
-      <c r="H107" s="53"/>
-      <c r="I107" s="51">
+      <c r="H107" s="22"/>
+      <c r="I107" s="20">
         <v>13.3</v>
       </c>
-      <c r="J107" s="52"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="51">
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="20">
         <v>26.6</v>
       </c>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="53"/>
-      <c r="R107" s="51">
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="20">
         <v>21.7</v>
       </c>
-      <c r="S107" s="52"/>
-      <c r="T107" s="52"/>
-      <c r="U107" s="52"/>
-      <c r="V107" s="53"/>
+      <c r="S107" s="21"/>
+      <c r="T107" s="21"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="22"/>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="16">
@@ -6638,35 +6638,35 @@
       <c r="C108" s="4">
         <v>22.4</v>
       </c>
-      <c r="D108" s="51">
+      <c r="D108" s="20">
         <v>5.9</v>
       </c>
-      <c r="E108" s="52"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="51">
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="20">
         <v>71.3</v>
       </c>
-      <c r="H108" s="53"/>
-      <c r="I108" s="51">
+      <c r="H108" s="22"/>
+      <c r="I108" s="20">
         <v>11.1</v>
       </c>
-      <c r="J108" s="52"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="51">
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="20">
         <v>33.1</v>
       </c>
-      <c r="O108" s="52"/>
-      <c r="P108" s="52"/>
-      <c r="Q108" s="53"/>
-      <c r="R108" s="51">
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="20">
         <v>23.6</v>
       </c>
-      <c r="S108" s="52"/>
-      <c r="T108" s="52"/>
-      <c r="U108" s="52"/>
-      <c r="V108" s="53"/>
+      <c r="S108" s="21"/>
+      <c r="T108" s="21"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="22"/>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="16">
@@ -6678,35 +6678,35 @@
       <c r="C109" s="4">
         <v>23.9</v>
       </c>
-      <c r="D109" s="51">
+      <c r="D109" s="20">
         <v>5.9</v>
       </c>
-      <c r="E109" s="52"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="51">
+      <c r="E109" s="21"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="20">
         <v>68.2</v>
       </c>
-      <c r="H109" s="53"/>
-      <c r="I109" s="51">
+      <c r="H109" s="22"/>
+      <c r="I109" s="20">
         <v>10.4</v>
       </c>
-      <c r="J109" s="52"/>
-      <c r="K109" s="52"/>
-      <c r="L109" s="52"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="51">
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="20">
         <v>30.1</v>
       </c>
-      <c r="O109" s="52"/>
-      <c r="P109" s="52"/>
-      <c r="Q109" s="53"/>
-      <c r="R109" s="51">
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="20">
         <v>20.5</v>
       </c>
-      <c r="S109" s="52"/>
-      <c r="T109" s="52"/>
-      <c r="U109" s="52"/>
-      <c r="V109" s="53"/>
+      <c r="S109" s="21"/>
+      <c r="T109" s="21"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="22"/>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="16">
@@ -6718,35 +6718,35 @@
       <c r="C110" s="4">
         <v>23.8</v>
       </c>
-      <c r="D110" s="51">
+      <c r="D110" s="20">
         <v>7.6</v>
       </c>
-      <c r="E110" s="52"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="51">
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="20">
         <v>72</v>
       </c>
-      <c r="H110" s="53"/>
-      <c r="I110" s="51">
+      <c r="H110" s="22"/>
+      <c r="I110" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J110" s="52"/>
-      <c r="K110" s="52"/>
-      <c r="L110" s="52"/>
-      <c r="M110" s="53"/>
-      <c r="N110" s="51">
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="20">
         <v>25</v>
       </c>
-      <c r="O110" s="52"/>
-      <c r="P110" s="52"/>
-      <c r="Q110" s="53"/>
-      <c r="R110" s="51">
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="20">
         <v>18</v>
       </c>
-      <c r="S110" s="52"/>
-      <c r="T110" s="52"/>
-      <c r="U110" s="52"/>
-      <c r="V110" s="53"/>
+      <c r="S110" s="21"/>
+      <c r="T110" s="21"/>
+      <c r="U110" s="21"/>
+      <c r="V110" s="22"/>
     </row>
     <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="16">
@@ -6758,35 +6758,35 @@
       <c r="C111" s="4">
         <v>23.4</v>
       </c>
-      <c r="D111" s="51">
+      <c r="D111" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E111" s="52"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="51">
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="20">
         <v>74.3</v>
       </c>
-      <c r="H111" s="53"/>
-      <c r="I111" s="51">
+      <c r="H111" s="22"/>
+      <c r="I111" s="20">
         <v>9</v>
       </c>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="51">
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="20">
         <v>23.2</v>
       </c>
-      <c r="O111" s="52"/>
-      <c r="P111" s="52"/>
-      <c r="Q111" s="53"/>
-      <c r="R111" s="51">
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="20">
         <v>17.2</v>
       </c>
-      <c r="S111" s="52"/>
-      <c r="T111" s="52"/>
-      <c r="U111" s="52"/>
-      <c r="V111" s="53"/>
+      <c r="S111" s="21"/>
+      <c r="T111" s="21"/>
+      <c r="U111" s="21"/>
+      <c r="V111" s="22"/>
     </row>
     <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="16">
@@ -6798,35 +6798,35 @@
       <c r="C112" s="4">
         <v>19.8</v>
       </c>
-      <c r="D112" s="51">
+      <c r="D112" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E112" s="52"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="51">
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="20">
         <v>78.5</v>
       </c>
-      <c r="H112" s="53"/>
-      <c r="I112" s="51">
+      <c r="H112" s="22"/>
+      <c r="I112" s="20">
         <v>9.4</v>
       </c>
-      <c r="J112" s="52"/>
-      <c r="K112" s="52"/>
-      <c r="L112" s="52"/>
-      <c r="M112" s="53"/>
-      <c r="N112" s="51">
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="20">
         <v>23.8</v>
       </c>
-      <c r="O112" s="52"/>
-      <c r="P112" s="52"/>
-      <c r="Q112" s="53"/>
-      <c r="R112" s="51">
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="20">
         <v>18.7</v>
       </c>
-      <c r="S112" s="52"/>
-      <c r="T112" s="52"/>
-      <c r="U112" s="52"/>
-      <c r="V112" s="53"/>
+      <c r="S112" s="21"/>
+      <c r="T112" s="21"/>
+      <c r="U112" s="21"/>
+      <c r="V112" s="22"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="16">
@@ -6838,35 +6838,35 @@
       <c r="C113" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="D113" s="51">
+      <c r="D113" s="20">
         <v>7.5</v>
       </c>
-      <c r="E113" s="52"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="51">
+      <c r="E113" s="21"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="20">
         <v>80.2</v>
       </c>
-      <c r="H113" s="53"/>
-      <c r="I113" s="51">
+      <c r="H113" s="22"/>
+      <c r="I113" s="20">
         <v>9.1</v>
       </c>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="52"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="51">
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="20">
         <v>24.1</v>
       </c>
-      <c r="O113" s="52"/>
-      <c r="P113" s="52"/>
-      <c r="Q113" s="53"/>
-      <c r="R113" s="51">
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="20">
         <v>19.3</v>
       </c>
-      <c r="S113" s="52"/>
-      <c r="T113" s="52"/>
-      <c r="U113" s="52"/>
-      <c r="V113" s="53"/>
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="22"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="16">
@@ -6878,35 +6878,35 @@
       <c r="C114" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="D114" s="51">
+      <c r="D114" s="20">
         <v>6.4</v>
       </c>
-      <c r="E114" s="52"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="51">
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="20">
         <v>76</v>
       </c>
-      <c r="H114" s="53"/>
-      <c r="I114" s="51">
+      <c r="H114" s="22"/>
+      <c r="I114" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="52"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="51">
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="20">
         <v>26.3</v>
       </c>
-      <c r="O114" s="52"/>
-      <c r="P114" s="52"/>
-      <c r="Q114" s="53"/>
-      <c r="R114" s="51">
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="20">
         <v>20</v>
       </c>
-      <c r="S114" s="52"/>
-      <c r="T114" s="52"/>
-      <c r="U114" s="52"/>
-      <c r="V114" s="53"/>
+      <c r="S114" s="21"/>
+      <c r="T114" s="21"/>
+      <c r="U114" s="21"/>
+      <c r="V114" s="22"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="16">
@@ -6918,35 +6918,35 @@
       <c r="C115" s="4">
         <v>20.6</v>
       </c>
-      <c r="D115" s="51">
+      <c r="D115" s="20">
         <v>6.5</v>
       </c>
-      <c r="E115" s="52"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="51">
+      <c r="E115" s="21"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="20">
         <v>85.6</v>
       </c>
-      <c r="H115" s="53"/>
-      <c r="I115" s="51">
+      <c r="H115" s="22"/>
+      <c r="I115" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="52"/>
-      <c r="M115" s="53"/>
-      <c r="N115" s="51">
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="20">
         <v>22.4</v>
       </c>
-      <c r="O115" s="52"/>
-      <c r="P115" s="52"/>
-      <c r="Q115" s="53"/>
-      <c r="R115" s="51">
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="20">
         <v>19.100000000000001</v>
       </c>
-      <c r="S115" s="52"/>
-      <c r="T115" s="52"/>
-      <c r="U115" s="52"/>
-      <c r="V115" s="53"/>
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="21"/>
+      <c r="V115" s="22"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="16">
@@ -6958,35 +6958,35 @@
       <c r="C116" s="4">
         <v>21.2</v>
       </c>
-      <c r="D116" s="51">
+      <c r="D116" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E116" s="52"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="51">
+      <c r="E116" s="21"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="20">
         <v>100.6</v>
       </c>
-      <c r="H116" s="53"/>
-      <c r="I116" s="51">
+      <c r="H116" s="22"/>
+      <c r="I116" s="20">
         <v>9</v>
       </c>
-      <c r="J116" s="52"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="52"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="51">
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="20">
         <v>17.5</v>
       </c>
-      <c r="O116" s="52"/>
-      <c r="P116" s="52"/>
-      <c r="Q116" s="53"/>
-      <c r="R116" s="51">
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="20">
         <v>17.600000000000001</v>
       </c>
-      <c r="S116" s="52"/>
-      <c r="T116" s="52"/>
-      <c r="U116" s="52"/>
-      <c r="V116" s="53"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="22"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
@@ -6998,35 +6998,35 @@
       <c r="C117" s="4">
         <v>20.3</v>
       </c>
-      <c r="D117" s="51">
+      <c r="D117" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E117" s="52"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="51">
+      <c r="E117" s="21"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="20">
         <v>106.2</v>
       </c>
-      <c r="H117" s="53"/>
-      <c r="I117" s="51">
+      <c r="H117" s="22"/>
+      <c r="I117" s="20">
         <v>8.9</v>
       </c>
-      <c r="J117" s="52"/>
-      <c r="K117" s="52"/>
-      <c r="L117" s="52"/>
-      <c r="M117" s="53"/>
-      <c r="N117" s="51">
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="20">
         <v>16.8</v>
       </c>
-      <c r="O117" s="52"/>
-      <c r="P117" s="52"/>
-      <c r="Q117" s="53"/>
-      <c r="R117" s="51">
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="20">
         <v>17.8</v>
       </c>
-      <c r="S117" s="52"/>
-      <c r="T117" s="52"/>
-      <c r="U117" s="52"/>
-      <c r="V117" s="53"/>
+      <c r="S117" s="21"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="22"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="17" t="s">
@@ -7038,35 +7038,35 @@
       <c r="C118" s="4">
         <v>20.3</v>
       </c>
-      <c r="D118" s="51">
+      <c r="D118" s="20">
         <v>4.7</v>
       </c>
-      <c r="E118" s="52"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="51">
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="20">
         <v>105.3</v>
       </c>
-      <c r="H118" s="53"/>
-      <c r="I118" s="51">
+      <c r="H118" s="22"/>
+      <c r="I118" s="20">
         <v>8.5</v>
       </c>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="52"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="51">
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="20">
         <v>16.5</v>
       </c>
-      <c r="O118" s="52"/>
-      <c r="P118" s="52"/>
-      <c r="Q118" s="53"/>
-      <c r="R118" s="51">
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="20">
         <v>17.399999999999999</v>
       </c>
-      <c r="S118" s="52"/>
-      <c r="T118" s="52"/>
-      <c r="U118" s="52"/>
-      <c r="V118" s="53"/>
+      <c r="S118" s="21"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="22"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="17" t="s">
@@ -7078,430 +7078,172 @@
       <c r="C119" s="4">
         <v>20</v>
       </c>
-      <c r="D119" s="51">
+      <c r="D119" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E119" s="52"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="51">
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="20">
         <v>103</v>
       </c>
-      <c r="H119" s="53"/>
-      <c r="I119" s="51">
+      <c r="H119" s="22"/>
+      <c r="I119" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="52"/>
-      <c r="M119" s="53"/>
-      <c r="N119" s="51">
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="20">
         <v>18.100000000000001</v>
       </c>
-      <c r="O119" s="52"/>
-      <c r="P119" s="52"/>
-      <c r="Q119" s="53"/>
-      <c r="R119" s="51">
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="20">
         <v>18.600000000000001</v>
       </c>
-      <c r="S119" s="52"/>
-      <c r="T119" s="52"/>
-      <c r="U119" s="52"/>
-      <c r="V119" s="53"/>
+      <c r="S119" s="21"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="21"/>
+      <c r="V119" s="22"/>
     </row>
     <row r="120" spans="1:25" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="127" t="s">
+      <c r="A120" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="127"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="127"/>
-      <c r="G120" s="127"/>
-      <c r="H120" s="127"/>
-      <c r="I120" s="127"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="127"/>
-      <c r="L120" s="127"/>
-      <c r="M120" s="127"/>
-      <c r="N120" s="127"/>
-      <c r="O120" s="127"/>
-      <c r="P120" s="127"/>
-      <c r="Q120" s="127"/>
-      <c r="R120" s="127"/>
-      <c r="S120" s="127"/>
-      <c r="T120" s="127"/>
-      <c r="U120" s="127"/>
-      <c r="V120" s="127"/>
-      <c r="W120" s="127"/>
-      <c r="X120" s="127"/>
-      <c r="Y120" s="127"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="19"/>
+      <c r="W120" s="19"/>
+      <c r="X120" s="19"/>
+      <c r="Y120" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="482">
-    <mergeCell ref="A120:Y120"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="I118:M118"/>
-    <mergeCell ref="N118:Q118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="I119:M119"/>
-    <mergeCell ref="N119:Q119"/>
-    <mergeCell ref="R119:V119"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:Q116"/>
-    <mergeCell ref="R116:V116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="I117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:V117"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:V114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:M115"/>
-    <mergeCell ref="N115:Q115"/>
-    <mergeCell ref="R115:V115"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="I112:M112"/>
-    <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="R112:V112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="I113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:V113"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="N110:Q110"/>
-    <mergeCell ref="R110:V110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="I111:M111"/>
-    <mergeCell ref="N111:Q111"/>
-    <mergeCell ref="R111:V111"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:V108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="I109:M109"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="R109:V109"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="N106:Q106"/>
-    <mergeCell ref="R106:V106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="I107:M107"/>
-    <mergeCell ref="N107:Q107"/>
-    <mergeCell ref="R107:V107"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="I104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:V104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:M105"/>
-    <mergeCell ref="N105:Q105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:M102"/>
-    <mergeCell ref="N102:Q102"/>
-    <mergeCell ref="R102:V102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="I103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:V103"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:V100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:M101"/>
-    <mergeCell ref="N101:Q101"/>
-    <mergeCell ref="R101:V101"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:M98"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="R98:V98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="R99:V99"/>
-    <mergeCell ref="A94:Y94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:V95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:V96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="R97:V97"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="O91:U91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="O92:U92"/>
-    <mergeCell ref="A93:U93"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="O88:U88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="O89:U89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="O90:U90"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="O85:U85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:N86"/>
-    <mergeCell ref="O86:U86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:N87"/>
-    <mergeCell ref="O87:U87"/>
-    <mergeCell ref="A81:Y81"/>
-    <mergeCell ref="A82:E83"/>
-    <mergeCell ref="F82:U82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="O83:U83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="O84:U84"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="Q78:T78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="M79:P79"/>
-    <mergeCell ref="Q79:T79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:P80"/>
-    <mergeCell ref="Q80:T80"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:P75"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="Q76:T76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M72:P72"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:P73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:P74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:P69"/>
-    <mergeCell ref="Q69:T69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:P70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:P71"/>
-    <mergeCell ref="Q71:T71"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:P67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:P68"/>
-    <mergeCell ref="Q68:T68"/>
-    <mergeCell ref="A62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="A63:Y63"/>
-    <mergeCell ref="A64:J65"/>
-    <mergeCell ref="K64:T64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:P65"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="M60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="M57:U57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="M53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="M54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="M51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="M47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="M48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="M44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="M45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="M42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="M43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="M38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="M39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="A40:L40"/>
-    <mergeCell ref="M40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="M35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="M36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A32:L33"/>
-    <mergeCell ref="M32:AC32"/>
-    <mergeCell ref="M33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="M34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="A30:AD30"/>
-    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:R7"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A11:AD11"/>
+    <mergeCell ref="A12:D14"/>
+    <mergeCell ref="E12:Z12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:Z26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="I27:K27"/>
@@ -7516,111 +7258,369 @@
     <mergeCell ref="P28:S28"/>
     <mergeCell ref="T28:W28"/>
     <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="A11:AD11"/>
-    <mergeCell ref="A12:D14"/>
-    <mergeCell ref="E12:Z12"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:R7"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="A30:AD30"/>
+    <mergeCell ref="A31:AD31"/>
+    <mergeCell ref="A32:L33"/>
+    <mergeCell ref="M32:AC32"/>
+    <mergeCell ref="M33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="M35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="M36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="M38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="M39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="M40:U40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="M42:U42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="M43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="M44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="M45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="M47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="M48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="M51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="M52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="M53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="M54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="M57:U57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="M60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="A63:Y63"/>
+    <mergeCell ref="A64:J65"/>
+    <mergeCell ref="K64:T64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:P65"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:P67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:P68"/>
+    <mergeCell ref="Q68:T68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:P69"/>
+    <mergeCell ref="Q69:T69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:P70"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:P71"/>
+    <mergeCell ref="Q71:T71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:P72"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:P73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:P74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:P75"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="Q76:T76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="Q78:T78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="M79:P79"/>
+    <mergeCell ref="Q79:T79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:P80"/>
+    <mergeCell ref="Q80:T80"/>
+    <mergeCell ref="A81:Y81"/>
+    <mergeCell ref="A82:E83"/>
+    <mergeCell ref="F82:U82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="O83:U83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="O84:U84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="O85:U85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:N86"/>
+    <mergeCell ref="O86:U86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:N87"/>
+    <mergeCell ref="O87:U87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="O88:U88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="O89:U89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="O90:U90"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="O91:U91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="O92:U92"/>
+    <mergeCell ref="A93:U93"/>
+    <mergeCell ref="A94:Y94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:V95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:V96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="R97:V97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:M98"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="R98:V98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="R99:V99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:V100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:M101"/>
+    <mergeCell ref="N101:Q101"/>
+    <mergeCell ref="R101:V101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:M102"/>
+    <mergeCell ref="N102:Q102"/>
+    <mergeCell ref="R102:V102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:V103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="I104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:V104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:M105"/>
+    <mergeCell ref="N105:Q105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:M106"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="R106:V106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="I107:M107"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="R107:V107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="I108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:V108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I109:M109"/>
+    <mergeCell ref="N109:Q109"/>
+    <mergeCell ref="R109:V109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="R110:V110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="I111:M111"/>
+    <mergeCell ref="N111:Q111"/>
+    <mergeCell ref="R111:V111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="N112:Q112"/>
+    <mergeCell ref="R112:V112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="I113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:V113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:V114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I115:M115"/>
+    <mergeCell ref="N115:Q115"/>
+    <mergeCell ref="R115:V115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:Q116"/>
+    <mergeCell ref="R116:V116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="I117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:V117"/>
+    <mergeCell ref="A120:Y120"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I118:M118"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="I119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="R119:V119"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.dea.gov.in/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7634,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AFA280-AE68-E549-BE7F-83A817DF3F45}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
